--- a/database/industries/ghaza/ghepino/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghepino/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghepino\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D850DE6-02B7-4528-9A2F-58CA91D3EBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غپینو-پارس‌ مینو</t>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>فصل دوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -273,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -443,7 +444,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -455,7 +456,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -502,6 +503,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -537,6 +555,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -688,17 +723,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -708,7 +743,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +755,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -732,7 +767,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -742,7 +777,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -754,7 +789,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,7 +801,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -776,7 +811,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -798,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -808,95 +843,95 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1195065</v>
+        <v>1656602</v>
       </c>
       <c r="F10" s="9">
-        <v>1656602</v>
+        <v>1768827</v>
       </c>
       <c r="G10" s="9">
-        <v>1768827</v>
+        <v>1676936</v>
       </c>
       <c r="H10" s="9">
-        <v>1676936</v>
+        <v>2496186</v>
       </c>
       <c r="I10" s="9">
-        <v>2496186</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2493138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>217341</v>
+        <v>256572</v>
       </c>
       <c r="F11" s="11">
-        <v>256572</v>
+        <v>279638</v>
       </c>
       <c r="G11" s="11">
-        <v>279638</v>
+        <v>428633</v>
       </c>
       <c r="H11" s="11">
-        <v>428633</v>
+        <v>358267</v>
       </c>
       <c r="I11" s="11">
-        <v>358267</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>421394</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>333718</v>
+        <v>278931</v>
       </c>
       <c r="F12" s="9">
-        <v>278931</v>
+        <v>413426</v>
       </c>
       <c r="G12" s="9">
-        <v>413426</v>
+        <v>472349</v>
       </c>
       <c r="H12" s="9">
-        <v>472349</v>
+        <v>325497</v>
       </c>
       <c r="I12" s="9">
-        <v>325497</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>373924</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1746124</v>
+        <v>2192105</v>
       </c>
       <c r="F13" s="13">
-        <v>2192105</v>
+        <v>2461891</v>
       </c>
       <c r="G13" s="13">
-        <v>2461891</v>
+        <v>2577918</v>
       </c>
       <c r="H13" s="13">
-        <v>2577918</v>
+        <v>3179950</v>
       </c>
       <c r="I13" s="13">
-        <v>3179950</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3288456</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -918,51 +953,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1746124</v>
+        <v>2192105</v>
       </c>
       <c r="F15" s="13">
-        <v>2192105</v>
+        <v>2461891</v>
       </c>
       <c r="G15" s="13">
-        <v>2461891</v>
+        <v>2577918</v>
       </c>
       <c r="H15" s="13">
-        <v>2577918</v>
+        <v>3179950</v>
       </c>
       <c r="I15" s="13">
-        <v>3179950</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3288456</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-22088</v>
+        <v>-14504</v>
       </c>
       <c r="F16" s="9">
-        <v>-14504</v>
+        <v>21127</v>
       </c>
       <c r="G16" s="9">
-        <v>21127</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>0</v>
+        <v>-88191</v>
       </c>
       <c r="I16" s="9">
-        <v>-88191</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11905</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -984,29 +1019,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1724036</v>
+        <v>2177601</v>
       </c>
       <c r="F18" s="15">
-        <v>2177601</v>
+        <v>2483018</v>
       </c>
       <c r="G18" s="15">
-        <v>2483018</v>
+        <v>2577918</v>
       </c>
       <c r="H18" s="15">
-        <v>2577918</v>
+        <v>3091759</v>
       </c>
       <c r="I18" s="15">
-        <v>3091759</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3276551</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>6167</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
@@ -1028,51 +1063,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>3494</v>
+        <v>-6167</v>
       </c>
       <c r="F20" s="9">
-        <v>-6167</v>
+        <v>0</v>
       </c>
       <c r="G20" s="9">
-        <v>8525</v>
+        <v>0</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
       </c>
       <c r="I20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5781</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1727530</v>
+        <v>2171434</v>
       </c>
       <c r="F21" s="13">
-        <v>2171434</v>
+        <v>2491543</v>
       </c>
       <c r="G21" s="13">
-        <v>2491543</v>
+        <v>2577918</v>
       </c>
       <c r="H21" s="13">
-        <v>2577918</v>
+        <v>3091759</v>
       </c>
       <c r="I21" s="13">
-        <v>3091759</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3270770</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1094,29 +1129,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1727530</v>
+        <v>2171434</v>
       </c>
       <c r="F23" s="13">
-        <v>2171434</v>
+        <v>2491543</v>
       </c>
       <c r="G23" s="13">
-        <v>2491543</v>
+        <v>2577918</v>
       </c>
       <c r="H23" s="13">
-        <v>2577918</v>
+        <v>3091759</v>
       </c>
       <c r="I23" s="13">
-        <v>3091759</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3270770</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1126,7 +1161,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1136,7 +1171,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1146,7 +1181,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1178,7 +1213,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -1190,19 +1225,19 @@
         <v>63160</v>
       </c>
       <c r="F29" s="9">
-        <v>63160</v>
+        <v>69595</v>
       </c>
       <c r="G29" s="9">
-        <v>69595</v>
+        <v>228950</v>
       </c>
       <c r="H29" s="9">
-        <v>228950</v>
+        <v>89899</v>
       </c>
       <c r="I29" s="9">
-        <v>89899</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74549</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1214,19 +1249,19 @@
         <v>1048778</v>
       </c>
       <c r="F30" s="11">
-        <v>1048778</v>
+        <v>924536</v>
       </c>
       <c r="G30" s="11">
-        <v>924536</v>
+        <v>952621</v>
       </c>
       <c r="H30" s="11">
-        <v>952621</v>
+        <v>921121</v>
       </c>
       <c r="I30" s="11">
-        <v>921121</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>906761</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1238,19 +1273,19 @@
         <v>93467</v>
       </c>
       <c r="F31" s="9">
-        <v>93467</v>
+        <v>426960</v>
       </c>
       <c r="G31" s="9">
-        <v>426960</v>
+        <v>378060</v>
       </c>
       <c r="H31" s="9">
-        <v>378060</v>
+        <v>507502</v>
       </c>
       <c r="I31" s="9">
-        <v>507502</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>183130</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1259,22 +1294,22 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>0</v>
+        <v>2342092</v>
       </c>
       <c r="F32" s="11">
-        <v>2342092</v>
+        <v>16330393</v>
       </c>
       <c r="G32" s="11">
-        <v>16330393</v>
+        <v>23529377</v>
       </c>
       <c r="H32" s="11">
-        <v>23529377</v>
+        <v>14921905</v>
       </c>
       <c r="I32" s="11">
-        <v>14921905</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14723493</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1286,19 +1321,19 @@
         <v>341578</v>
       </c>
       <c r="F33" s="9">
-        <v>341578</v>
+        <v>274750</v>
       </c>
       <c r="G33" s="9">
-        <v>274750</v>
+        <v>233450</v>
       </c>
       <c r="H33" s="9">
-        <v>233450</v>
+        <v>218700</v>
       </c>
       <c r="I33" s="9">
-        <v>218700</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189825</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>31</v>
       </c>
@@ -1310,19 +1345,19 @@
         <v>213375</v>
       </c>
       <c r="F34" s="11">
-        <v>213375</v>
+        <v>209413</v>
       </c>
       <c r="G34" s="11">
-        <v>209413</v>
+        <v>212128</v>
       </c>
       <c r="H34" s="11">
-        <v>212128</v>
+        <v>192387</v>
       </c>
       <c r="I34" s="11">
-        <v>192387</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>204410</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>32</v>
       </c>
@@ -1334,19 +1369,19 @@
         <v>23942873</v>
       </c>
       <c r="F35" s="9">
-        <v>23942873</v>
+        <v>21442633</v>
       </c>
       <c r="G35" s="9">
-        <v>21442633</v>
+        <v>25714224</v>
       </c>
       <c r="H35" s="9">
-        <v>25714224</v>
+        <v>23060731</v>
       </c>
       <c r="I35" s="9">
-        <v>23060731</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>19190766</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>33</v>
       </c>
@@ -1358,19 +1393,19 @@
         <v>529009</v>
       </c>
       <c r="F36" s="11">
-        <v>529009</v>
+        <v>289078</v>
       </c>
       <c r="G36" s="11">
-        <v>289078</v>
+        <v>399897</v>
       </c>
       <c r="H36" s="11">
-        <v>399897</v>
+        <v>375354</v>
       </c>
       <c r="I36" s="11">
-        <v>375354</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>291537</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>34</v>
       </c>
@@ -1382,19 +1417,19 @@
         <v>676712</v>
       </c>
       <c r="F37" s="9">
-        <v>676712</v>
+        <v>660066</v>
       </c>
       <c r="G37" s="9">
-        <v>660066</v>
+        <v>657140</v>
       </c>
       <c r="H37" s="9">
-        <v>657140</v>
+        <v>450533</v>
       </c>
       <c r="I37" s="9">
-        <v>450533</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>337202</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>35</v>
       </c>
@@ -1406,19 +1441,19 @@
         <v>586382</v>
       </c>
       <c r="F38" s="11">
-        <v>586382</v>
+        <v>231801</v>
       </c>
       <c r="G38" s="11">
-        <v>231801</v>
+        <v>437436</v>
       </c>
       <c r="H38" s="11">
-        <v>437436</v>
+        <v>594367</v>
       </c>
       <c r="I38" s="11">
-        <v>594367</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>487687</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>36</v>
       </c>
@@ -1430,41 +1465,41 @@
         <v>807370</v>
       </c>
       <c r="F39" s="9">
-        <v>807370</v>
+        <v>887000</v>
       </c>
       <c r="G39" s="9">
-        <v>887000</v>
+        <v>431670</v>
       </c>
       <c r="H39" s="9">
-        <v>431670</v>
+        <v>530660</v>
       </c>
       <c r="I39" s="9">
-        <v>530660</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>747630</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
-        <v>28302704</v>
+        <v>30644796</v>
       </c>
       <c r="F40" s="13">
-        <v>30644796</v>
+        <v>41746225</v>
       </c>
       <c r="G40" s="13">
-        <v>41746225</v>
+        <v>53174953</v>
       </c>
       <c r="H40" s="13">
-        <v>53174953</v>
+        <v>41863159</v>
       </c>
       <c r="I40" s="13">
-        <v>41863159</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37336990</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1474,7 +1509,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1484,7 +1519,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1494,7 +1529,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1526,7 +1561,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>24</v>
       </c>
@@ -1535,22 +1570,22 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>0</v>
+        <v>4560805</v>
       </c>
       <c r="F46" s="9">
-        <v>4560805</v>
+        <v>2694040</v>
       </c>
       <c r="G46" s="9">
-        <v>2694040</v>
+        <v>2119839</v>
       </c>
       <c r="H46" s="9">
-        <v>2119839</v>
+        <v>1792362</v>
       </c>
       <c r="I46" s="9">
-        <v>1792362</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2981245</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>26</v>
       </c>
@@ -1559,22 +1594,22 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>8648490</v>
+      </c>
+      <c r="F47" s="11">
+        <v>-8385772</v>
+      </c>
+      <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="F47" s="11">
-        <v>8648490</v>
-      </c>
-      <c r="G47" s="11">
-        <v>-8385772</v>
-      </c>
       <c r="H47" s="11">
-        <v>0</v>
+        <v>56520</v>
       </c>
       <c r="I47" s="11">
-        <v>56520</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>95183</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>28</v>
       </c>
@@ -1583,22 +1618,22 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>0</v>
+        <v>2111014</v>
       </c>
       <c r="F48" s="9">
-        <v>2111014</v>
+        <v>942290</v>
       </c>
       <c r="G48" s="9">
-        <v>942290</v>
+        <v>893890</v>
       </c>
       <c r="H48" s="9">
-        <v>893890</v>
+        <v>425020</v>
       </c>
       <c r="I48" s="9">
-        <v>425020</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>816220</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>29</v>
       </c>
@@ -1607,22 +1642,22 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>2500326</v>
+        <v>31044997</v>
       </c>
       <c r="F49" s="11">
-        <v>31044997</v>
+        <v>35839828</v>
       </c>
       <c r="G49" s="11">
-        <v>35839828</v>
+        <v>6829536</v>
       </c>
       <c r="H49" s="11">
-        <v>6829536</v>
+        <v>-1475181</v>
       </c>
       <c r="I49" s="11">
-        <v>-1475181</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3541709</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>30</v>
       </c>
@@ -1631,10 +1666,10 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>-4928</v>
+      </c>
+      <c r="F50" s="9">
         <v>0</v>
-      </c>
-      <c r="F50" s="9">
-        <v>-4928</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
@@ -1646,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>31</v>
       </c>
@@ -1655,22 +1690,22 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>430311</v>
       </c>
       <c r="F51" s="11">
-        <v>430311</v>
+        <v>243288</v>
       </c>
       <c r="G51" s="11">
-        <v>243288</v>
+        <v>180809</v>
       </c>
       <c r="H51" s="11">
-        <v>180809</v>
+        <v>241325</v>
       </c>
       <c r="I51" s="11">
-        <v>241325</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>319935</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>32</v>
       </c>
@@ -1679,22 +1714,22 @@
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
-        <v>0</v>
+        <v>68301083</v>
       </c>
       <c r="F52" s="9">
-        <v>68301083</v>
+        <v>28641879</v>
       </c>
       <c r="G52" s="9">
-        <v>28641879</v>
+        <v>20211753</v>
       </c>
       <c r="H52" s="9">
-        <v>20211753</v>
+        <v>42035874</v>
       </c>
       <c r="I52" s="9">
-        <v>42035874</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>39875194</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>33</v>
       </c>
@@ -1703,22 +1738,22 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>0</v>
+        <v>-6904</v>
       </c>
       <c r="F53" s="11">
-        <v>-6904</v>
+        <v>216000</v>
       </c>
       <c r="G53" s="11">
-        <v>216000</v>
+        <v>64800</v>
       </c>
       <c r="H53" s="11">
-        <v>64800</v>
+        <v>21190</v>
       </c>
       <c r="I53" s="11">
-        <v>21190</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -1727,22 +1762,22 @@
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
-        <v>0</v>
+        <v>3210163</v>
       </c>
       <c r="F54" s="9">
-        <v>3210163</v>
+        <v>-409001</v>
       </c>
       <c r="G54" s="9">
-        <v>-409001</v>
+        <v>675458</v>
       </c>
       <c r="H54" s="9">
-        <v>675458</v>
+        <v>792099</v>
       </c>
       <c r="I54" s="9">
-        <v>792099</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2856240</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>35</v>
       </c>
@@ -1751,22 +1786,22 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>0</v>
+        <v>2171947</v>
       </c>
       <c r="F55" s="11">
-        <v>2171947</v>
+        <v>1414184</v>
       </c>
       <c r="G55" s="11">
-        <v>1414184</v>
+        <v>1179148</v>
       </c>
       <c r="H55" s="11">
-        <v>1179148</v>
+        <v>1119484</v>
       </c>
       <c r="I55" s="11">
-        <v>1119484</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>656162</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>36</v>
       </c>
@@ -1775,44 +1810,44 @@
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
-        <v>0</v>
+        <v>3538720</v>
       </c>
       <c r="F56" s="9">
-        <v>3538720</v>
+        <v>1286260</v>
       </c>
       <c r="G56" s="9">
-        <v>1286260</v>
+        <v>1725360</v>
       </c>
       <c r="H56" s="9">
-        <v>1725360</v>
+        <v>1914200</v>
       </c>
       <c r="I56" s="9">
-        <v>1914200</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1451178</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>2500326</v>
+        <v>124005698</v>
       </c>
       <c r="F57" s="13">
-        <v>124005698</v>
+        <v>62482996</v>
       </c>
       <c r="G57" s="13">
-        <v>62482996</v>
+        <v>33880593</v>
       </c>
       <c r="H57" s="13">
-        <v>33880593</v>
+        <v>46922893</v>
       </c>
       <c r="I57" s="13">
-        <v>46922893</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52593376</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1822,7 +1857,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1832,7 +1867,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1842,7 +1877,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>38</v>
       </c>
@@ -1864,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1874,7 +1909,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>24</v>
       </c>
@@ -1883,22 +1918,22 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>0</v>
+        <v>4554370</v>
       </c>
       <c r="F63" s="9">
-        <v>4554370</v>
+        <v>2534685</v>
       </c>
       <c r="G63" s="9">
-        <v>2534685</v>
+        <v>2258890</v>
       </c>
       <c r="H63" s="9">
-        <v>2258890</v>
+        <v>1807712</v>
       </c>
       <c r="I63" s="9">
-        <v>1807712</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2982259</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>26</v>
       </c>
@@ -1907,22 +1942,22 @@
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
-        <v>0</v>
+        <v>8772732</v>
       </c>
       <c r="F64" s="11">
-        <v>8772732</v>
+        <v>-8413857</v>
       </c>
       <c r="G64" s="11">
-        <v>-8413857</v>
+        <v>31500</v>
       </c>
       <c r="H64" s="11">
-        <v>31500</v>
+        <v>70880</v>
       </c>
       <c r="I64" s="11">
-        <v>70880</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>53552</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>28</v>
       </c>
@@ -1931,22 +1966,22 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>0</v>
+        <v>1777521</v>
       </c>
       <c r="F65" s="9">
-        <v>1777521</v>
+        <v>991190</v>
       </c>
       <c r="G65" s="9">
-        <v>991190</v>
+        <v>764448</v>
       </c>
       <c r="H65" s="9">
-        <v>764448</v>
+        <v>749392</v>
       </c>
       <c r="I65" s="9">
-        <v>749392</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>713997</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>29</v>
       </c>
@@ -1955,22 +1990,22 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>158234</v>
+        <v>17056696</v>
       </c>
       <c r="F66" s="11">
-        <v>17056696</v>
+        <v>28640844</v>
       </c>
       <c r="G66" s="11">
-        <v>28640844</v>
+        <v>15437008</v>
       </c>
       <c r="H66" s="11">
-        <v>15437008</v>
+        <v>-1276769</v>
       </c>
       <c r="I66" s="11">
-        <v>-1276769</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2793255</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>30</v>
       </c>
@@ -1979,22 +2014,22 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>0</v>
+        <v>61900</v>
       </c>
       <c r="F67" s="9">
-        <v>61900</v>
+        <v>41300</v>
       </c>
       <c r="G67" s="9">
-        <v>41300</v>
+        <v>14750</v>
       </c>
       <c r="H67" s="9">
-        <v>14750</v>
+        <v>28875</v>
       </c>
       <c r="I67" s="9">
-        <v>28875</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>31</v>
       </c>
@@ -2003,22 +2038,22 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>0</v>
+        <v>434273</v>
       </c>
       <c r="F68" s="11">
-        <v>434273</v>
+        <v>240573</v>
       </c>
       <c r="G68" s="11">
-        <v>240573</v>
+        <v>200550</v>
       </c>
       <c r="H68" s="11">
-        <v>200550</v>
+        <v>229302</v>
       </c>
       <c r="I68" s="11">
-        <v>229302</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>204966</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>32</v>
       </c>
@@ -2027,22 +2062,22 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>0</v>
+        <v>70801323</v>
       </c>
       <c r="F69" s="9">
-        <v>70801323</v>
+        <v>24370288</v>
       </c>
       <c r="G69" s="9">
-        <v>24370288</v>
+        <v>22865246</v>
       </c>
       <c r="H69" s="9">
-        <v>22865246</v>
+        <v>45905839</v>
       </c>
       <c r="I69" s="9">
-        <v>45905839</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>32063336</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>33</v>
       </c>
@@ -2051,22 +2086,22 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>0</v>
+        <v>233027</v>
       </c>
       <c r="F70" s="11">
-        <v>233027</v>
+        <v>105181</v>
       </c>
       <c r="G70" s="11">
-        <v>105181</v>
+        <v>89343</v>
       </c>
       <c r="H70" s="11">
-        <v>89343</v>
+        <v>105007</v>
       </c>
       <c r="I70" s="11">
-        <v>105007</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>34</v>
       </c>
@@ -2075,22 +2110,22 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>0</v>
+        <v>3226809</v>
       </c>
       <c r="F71" s="9">
-        <v>3226809</v>
+        <v>-406075</v>
       </c>
       <c r="G71" s="9">
-        <v>-406075</v>
+        <v>882065</v>
       </c>
       <c r="H71" s="9">
-        <v>882065</v>
+        <v>905430</v>
       </c>
       <c r="I71" s="9">
-        <v>905430</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2668708</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>35</v>
       </c>
@@ -2099,22 +2134,22 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>0</v>
+        <v>2526528</v>
       </c>
       <c r="F72" s="11">
-        <v>2526528</v>
+        <v>1208549</v>
       </c>
       <c r="G72" s="11">
-        <v>1208549</v>
+        <v>1022217</v>
       </c>
       <c r="H72" s="11">
-        <v>1022217</v>
+        <v>1226164</v>
       </c>
       <c r="I72" s="11">
-        <v>1226164</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>809889</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>36</v>
       </c>
@@ -2123,44 +2158,44 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>0</v>
+        <v>3459090</v>
       </c>
       <c r="F73" s="9">
-        <v>3459090</v>
+        <v>1741590</v>
       </c>
       <c r="G73" s="9">
-        <v>1741590</v>
+        <v>1626370</v>
       </c>
       <c r="H73" s="9">
-        <v>1626370</v>
+        <v>1697230</v>
       </c>
       <c r="I73" s="9">
-        <v>1697230</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1808950</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>158234</v>
+        <v>112904269</v>
       </c>
       <c r="F74" s="13">
-        <v>112904269</v>
+        <v>51054268</v>
       </c>
       <c r="G74" s="13">
-        <v>51054268</v>
+        <v>45192387</v>
       </c>
       <c r="H74" s="13">
-        <v>45192387</v>
+        <v>51449062</v>
       </c>
       <c r="I74" s="13">
-        <v>51449062</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44271537</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2170,7 +2205,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2180,7 +2215,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2190,7 +2225,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B78" s="7" t="s">
         <v>39</v>
       </c>
@@ -2212,7 +2247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2222,7 +2257,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>24</v>
       </c>
@@ -2231,22 +2266,22 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>63160</v>
+        <v>69595</v>
       </c>
       <c r="F80" s="9">
-        <v>69595</v>
+        <v>228950</v>
       </c>
       <c r="G80" s="9">
-        <v>228950</v>
+        <v>89899</v>
       </c>
       <c r="H80" s="9">
-        <v>89899</v>
+        <v>74549</v>
       </c>
       <c r="I80" s="9">
-        <v>74549</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>73535</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>26</v>
       </c>
@@ -2255,22 +2290,22 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>1048778</v>
+        <v>924536</v>
       </c>
       <c r="F81" s="11">
-        <v>924536</v>
+        <v>952621</v>
       </c>
       <c r="G81" s="11">
-        <v>952621</v>
+        <v>921121</v>
       </c>
       <c r="H81" s="11">
-        <v>921121</v>
+        <v>906761</v>
       </c>
       <c r="I81" s="11">
-        <v>906761</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>948392</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>28</v>
       </c>
@@ -2279,22 +2314,22 @@
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
-        <v>93467</v>
+        <v>426960</v>
       </c>
       <c r="F82" s="9">
-        <v>426960</v>
+        <v>378060</v>
       </c>
       <c r="G82" s="9">
-        <v>378060</v>
+        <v>507502</v>
       </c>
       <c r="H82" s="9">
-        <v>507502</v>
+        <v>183130</v>
       </c>
       <c r="I82" s="9">
-        <v>183130</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>285353</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>29</v>
       </c>
@@ -2303,22 +2338,22 @@
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
-        <v>2342092</v>
+        <v>16330393</v>
       </c>
       <c r="F83" s="11">
-        <v>16330393</v>
+        <v>23529377</v>
       </c>
       <c r="G83" s="11">
-        <v>23529377</v>
+        <v>14921905</v>
       </c>
       <c r="H83" s="11">
-        <v>14921905</v>
+        <v>14723493</v>
       </c>
       <c r="I83" s="11">
-        <v>14723493</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15471947</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>30</v>
       </c>
@@ -2327,22 +2362,22 @@
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
-        <v>341578</v>
+        <v>274750</v>
       </c>
       <c r="F84" s="9">
-        <v>274750</v>
+        <v>233450</v>
       </c>
       <c r="G84" s="9">
-        <v>233450</v>
+        <v>218700</v>
       </c>
       <c r="H84" s="9">
-        <v>218700</v>
+        <v>189825</v>
       </c>
       <c r="I84" s="9">
-        <v>189825</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>145100</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>31</v>
       </c>
@@ -2351,22 +2386,22 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>213375</v>
+        <v>209413</v>
       </c>
       <c r="F85" s="11">
-        <v>209413</v>
+        <v>212128</v>
       </c>
       <c r="G85" s="11">
-        <v>212128</v>
+        <v>192387</v>
       </c>
       <c r="H85" s="11">
-        <v>192387</v>
+        <v>204410</v>
       </c>
       <c r="I85" s="11">
-        <v>204410</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>319379</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>32</v>
       </c>
@@ -2375,22 +2410,22 @@
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
-        <v>23942873</v>
+        <v>21442633</v>
       </c>
       <c r="F86" s="9">
-        <v>21442633</v>
+        <v>25714224</v>
       </c>
       <c r="G86" s="9">
-        <v>25714224</v>
+        <v>23060731</v>
       </c>
       <c r="H86" s="9">
-        <v>23060731</v>
+        <v>19190766</v>
       </c>
       <c r="I86" s="9">
-        <v>19190766</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>27002624</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>33</v>
       </c>
@@ -2399,22 +2434,22 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>529009</v>
+        <v>289078</v>
       </c>
       <c r="F87" s="11">
-        <v>289078</v>
+        <v>399897</v>
       </c>
       <c r="G87" s="11">
-        <v>399897</v>
+        <v>375354</v>
       </c>
       <c r="H87" s="11">
-        <v>375354</v>
+        <v>291537</v>
       </c>
       <c r="I87" s="11">
-        <v>291537</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>163947</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>34</v>
       </c>
@@ -2423,22 +2458,22 @@
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
-        <v>676712</v>
+        <v>660066</v>
       </c>
       <c r="F88" s="9">
-        <v>660066</v>
+        <v>657140</v>
       </c>
       <c r="G88" s="9">
-        <v>657140</v>
+        <v>450533</v>
       </c>
       <c r="H88" s="9">
-        <v>450533</v>
+        <v>337202</v>
       </c>
       <c r="I88" s="9">
-        <v>337202</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>524734</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>35</v>
       </c>
@@ -2447,22 +2482,22 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>586382</v>
+        <v>231801</v>
       </c>
       <c r="F89" s="11">
-        <v>231801</v>
+        <v>437436</v>
       </c>
       <c r="G89" s="11">
-        <v>437436</v>
+        <v>594367</v>
       </c>
       <c r="H89" s="11">
-        <v>594367</v>
+        <v>487687</v>
       </c>
       <c r="I89" s="11">
-        <v>487687</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>333960</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>36</v>
       </c>
@@ -2471,44 +2506,44 @@
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
-        <v>807370</v>
+        <v>887000</v>
       </c>
       <c r="F90" s="9">
-        <v>887000</v>
+        <v>431670</v>
       </c>
       <c r="G90" s="9">
-        <v>431670</v>
+        <v>530660</v>
       </c>
       <c r="H90" s="9">
-        <v>530660</v>
+        <v>747630</v>
       </c>
       <c r="I90" s="9">
-        <v>747630</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>389858</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
-        <v>30644796</v>
+        <v>41746225</v>
       </c>
       <c r="F91" s="13">
-        <v>41746225</v>
+        <v>53174953</v>
       </c>
       <c r="G91" s="13">
-        <v>53174953</v>
+        <v>41863159</v>
       </c>
       <c r="H91" s="13">
-        <v>41863159</v>
+        <v>37336990</v>
       </c>
       <c r="I91" s="13">
-        <v>37336990</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45658829</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2518,7 +2553,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2528,7 +2563,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2538,7 +2573,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>40</v>
       </c>
@@ -2560,7 +2595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2570,7 +2605,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>24</v>
       </c>
@@ -2582,19 +2617,19 @@
         <v>2885</v>
       </c>
       <c r="F97" s="9">
-        <v>2885</v>
+        <v>5098</v>
       </c>
       <c r="G97" s="9">
-        <v>5098</v>
+        <v>22076</v>
       </c>
       <c r="H97" s="9">
-        <v>22076</v>
+        <v>14404</v>
       </c>
       <c r="I97" s="9">
-        <v>14404</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12049</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>26</v>
       </c>
@@ -2606,19 +2641,19 @@
         <v>4342</v>
       </c>
       <c r="F98" s="11">
-        <v>4342</v>
+        <v>5036</v>
       </c>
       <c r="G98" s="11">
-        <v>5036</v>
+        <v>5220</v>
       </c>
       <c r="H98" s="11">
-        <v>5220</v>
+        <v>4950</v>
       </c>
       <c r="I98" s="11">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4846</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>28</v>
       </c>
@@ -2630,19 +2665,19 @@
         <v>8210</v>
       </c>
       <c r="F99" s="9">
-        <v>8210</v>
+        <v>41148</v>
       </c>
       <c r="G99" s="9">
-        <v>41148</v>
+        <v>44923</v>
       </c>
       <c r="H99" s="9">
-        <v>44923</v>
+        <v>79631</v>
       </c>
       <c r="I99" s="9">
-        <v>79631</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>33960</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>29</v>
       </c>
@@ -2651,22 +2686,22 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>806137</v>
+        <v>1045832</v>
       </c>
       <c r="F100" s="11">
-        <v>1045832</v>
+        <v>875039</v>
       </c>
       <c r="G100" s="11">
-        <v>875039</v>
+        <v>985931</v>
       </c>
       <c r="H100" s="11">
-        <v>985931</v>
+        <v>911764</v>
       </c>
       <c r="I100" s="11">
-        <v>911764</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>904421</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>30</v>
       </c>
@@ -2678,19 +2713,19 @@
         <v>82920</v>
       </c>
       <c r="F101" s="9">
-        <v>82920</v>
+        <v>113827</v>
       </c>
       <c r="G101" s="9">
-        <v>113827</v>
+        <v>56090</v>
       </c>
       <c r="H101" s="9">
-        <v>56090</v>
+        <v>52239</v>
       </c>
       <c r="I101" s="9">
-        <v>52239</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44138</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>31</v>
       </c>
@@ -2702,19 +2737,19 @@
         <v>142041</v>
       </c>
       <c r="F102" s="11">
-        <v>142041</v>
+        <v>178306</v>
       </c>
       <c r="G102" s="11">
-        <v>178306</v>
+        <v>165006</v>
       </c>
       <c r="H102" s="11">
-        <v>165006</v>
+        <v>149857</v>
       </c>
       <c r="I102" s="11">
-        <v>149857</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>166632</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>32</v>
       </c>
@@ -2726,19 +2761,19 @@
         <v>60777</v>
       </c>
       <c r="F103" s="9">
-        <v>60777</v>
+        <v>62033</v>
       </c>
       <c r="G103" s="9">
-        <v>62033</v>
+        <v>95400</v>
       </c>
       <c r="H103" s="9">
-        <v>95400</v>
+        <v>78983</v>
       </c>
       <c r="I103" s="9">
-        <v>78983</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78763</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>33</v>
       </c>
@@ -2750,19 +2785,19 @@
         <v>329282</v>
       </c>
       <c r="F104" s="11">
-        <v>329282</v>
+        <v>192276</v>
       </c>
       <c r="G104" s="11">
-        <v>192276</v>
+        <v>276105</v>
       </c>
       <c r="H104" s="11">
-        <v>276105</v>
+        <v>278814</v>
       </c>
       <c r="I104" s="11">
-        <v>278814</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>222524</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>34</v>
       </c>
@@ -2774,19 +2809,19 @@
         <v>48960</v>
       </c>
       <c r="F105" s="9">
-        <v>48960</v>
+        <v>60075</v>
       </c>
       <c r="G105" s="9">
-        <v>60075</v>
+        <v>74129</v>
       </c>
       <c r="H105" s="9">
-        <v>74129</v>
+        <v>49063</v>
       </c>
       <c r="I105" s="9">
-        <v>49063</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31103</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>35</v>
       </c>
@@ -2798,19 +2833,19 @@
         <v>148871</v>
       </c>
       <c r="F106" s="11">
-        <v>148871</v>
+        <v>58874</v>
       </c>
       <c r="G106" s="11">
-        <v>58874</v>
+        <v>73260</v>
       </c>
       <c r="H106" s="11">
-        <v>73260</v>
+        <v>385416</v>
       </c>
       <c r="I106" s="11">
-        <v>385416</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>399110</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>36</v>
       </c>
@@ -2822,41 +2857,41 @@
         <v>97506</v>
       </c>
       <c r="F107" s="9">
-        <v>97506</v>
+        <v>114726</v>
       </c>
       <c r="G107" s="9">
-        <v>114726</v>
+        <v>57051</v>
       </c>
       <c r="H107" s="9">
-        <v>57051</v>
+        <v>97037</v>
       </c>
       <c r="I107" s="9">
-        <v>97037</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139801</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
-        <v>1731931</v>
+        <v>1971626</v>
       </c>
       <c r="F108" s="13">
-        <v>1971626</v>
+        <v>1706438</v>
       </c>
       <c r="G108" s="13">
-        <v>1706438</v>
+        <v>1855191</v>
       </c>
       <c r="H108" s="13">
-        <v>1855191</v>
+        <v>2102158</v>
       </c>
       <c r="I108" s="13">
-        <v>2102158</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2037347</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2866,7 +2901,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2876,7 +2911,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2886,7 +2921,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B112" s="7" t="s">
         <v>42</v>
       </c>
@@ -2908,7 +2943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2918,7 +2953,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="8" t="s">
         <v>24</v>
       </c>
@@ -2927,22 +2962,22 @@
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9">
-        <v>0</v>
+        <v>279329</v>
       </c>
       <c r="F114" s="9">
-        <v>279329</v>
+        <v>195995</v>
       </c>
       <c r="G114" s="9">
-        <v>195995</v>
+        <v>296498</v>
       </c>
       <c r="H114" s="9">
-        <v>296498</v>
+        <v>368207</v>
       </c>
       <c r="I114" s="9">
-        <v>368207</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>381008</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>26</v>
       </c>
@@ -2951,22 +2986,22 @@
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
+        <v>46303</v>
+      </c>
+      <c r="F115" s="11">
+        <v>-42690</v>
+      </c>
+      <c r="G115" s="11">
         <v>0</v>
       </c>
-      <c r="F115" s="11">
-        <v>46303</v>
-      </c>
-      <c r="G115" s="11">
-        <v>-42690</v>
-      </c>
       <c r="H115" s="11">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="I115" s="11">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="8" t="s">
         <v>28</v>
       </c>
@@ -2975,22 +3010,22 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
-        <v>0</v>
+        <v>186919</v>
       </c>
       <c r="F116" s="9">
-        <v>186919</v>
+        <v>105955</v>
       </c>
       <c r="G116" s="9">
-        <v>105955</v>
+        <v>131168</v>
       </c>
       <c r="H116" s="9">
-        <v>131168</v>
+        <v>78825</v>
       </c>
       <c r="I116" s="9">
-        <v>78825</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>147817</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>29</v>
       </c>
@@ -2999,22 +3034,22 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>1434760</v>
+        <v>-787442</v>
       </c>
       <c r="F117" s="11">
-        <v>-787442</v>
+        <v>714664</v>
       </c>
       <c r="G117" s="11">
-        <v>714664</v>
+        <v>256180</v>
       </c>
       <c r="H117" s="11">
-        <v>256180</v>
+        <v>532131</v>
       </c>
       <c r="I117" s="11">
-        <v>532131</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>287039</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="8" t="s">
         <v>30</v>
       </c>
@@ -3023,13 +3058,13 @@
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
+        <v>46229</v>
+      </c>
+      <c r="F118" s="9">
+        <v>-47518</v>
+      </c>
+      <c r="G118" s="9">
         <v>0</v>
-      </c>
-      <c r="F118" s="9">
-        <v>46229</v>
-      </c>
-      <c r="G118" s="9">
-        <v>-47518</v>
       </c>
       <c r="H118" s="9">
         <v>0</v>
@@ -3038,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>31</v>
       </c>
@@ -3047,22 +3082,22 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>0</v>
+        <v>380887</v>
       </c>
       <c r="F119" s="11">
-        <v>380887</v>
+        <v>205972</v>
       </c>
       <c r="G119" s="11">
-        <v>205972</v>
+        <v>170088</v>
       </c>
       <c r="H119" s="11">
-        <v>170088</v>
+        <v>235782</v>
       </c>
       <c r="I119" s="11">
-        <v>235782</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>237268</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
         <v>32</v>
       </c>
@@ -3071,22 +3106,22 @@
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
-        <v>0</v>
+        <v>164077</v>
       </c>
       <c r="F120" s="9">
-        <v>164077</v>
+        <v>116163</v>
       </c>
       <c r="G120" s="9">
-        <v>116163</v>
+        <v>61312</v>
       </c>
       <c r="H120" s="9">
-        <v>61312</v>
+        <v>91176</v>
       </c>
       <c r="I120" s="9">
-        <v>91176</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>119065</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>33</v>
       </c>
@@ -3095,22 +3130,22 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>0</v>
+        <v>12252</v>
       </c>
       <c r="F121" s="11">
-        <v>12252</v>
+        <v>148094</v>
       </c>
       <c r="G121" s="11">
-        <v>148094</v>
+        <v>66600</v>
       </c>
       <c r="H121" s="11">
-        <v>66600</v>
+        <v>18820</v>
       </c>
       <c r="I121" s="11">
-        <v>18820</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>34</v>
       </c>
@@ -3119,22 +3154,22 @@
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>0</v>
+        <v>306915</v>
       </c>
       <c r="F122" s="9">
-        <v>306915</v>
+        <v>36474</v>
       </c>
       <c r="G122" s="9">
-        <v>36474</v>
+        <v>87790</v>
       </c>
       <c r="H122" s="9">
-        <v>87790</v>
+        <v>106110</v>
       </c>
       <c r="I122" s="9">
-        <v>106110</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>331748</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>35</v>
       </c>
@@ -3143,22 +3178,22 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>0</v>
+        <v>309601</v>
       </c>
       <c r="F123" s="11">
-        <v>309601</v>
+        <v>311029</v>
       </c>
       <c r="G123" s="11">
-        <v>311029</v>
+        <v>553692</v>
       </c>
       <c r="H123" s="11">
-        <v>553692</v>
+        <v>642554</v>
       </c>
       <c r="I123" s="11">
-        <v>642554</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>419681</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
@@ -3167,44 +3202,44 @@
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>0</v>
+        <v>446343</v>
       </c>
       <c r="F124" s="9">
-        <v>446343</v>
+        <v>173443</v>
       </c>
       <c r="G124" s="9">
-        <v>173443</v>
+        <v>300575</v>
       </c>
       <c r="H124" s="9">
-        <v>300575</v>
+        <v>357231</v>
       </c>
       <c r="I124" s="9">
-        <v>357231</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>276034</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>1434760</v>
+        <v>1391413</v>
       </c>
       <c r="F125" s="13">
-        <v>1391413</v>
+        <v>1917581</v>
       </c>
       <c r="G125" s="13">
-        <v>1917581</v>
+        <v>1923903</v>
       </c>
       <c r="H125" s="13">
-        <v>1923903</v>
+        <v>2431375</v>
       </c>
       <c r="I125" s="13">
-        <v>2431375</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2200994</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3214,7 +3249,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3224,7 +3259,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3234,7 +3269,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B129" s="7" t="s">
         <v>43</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3266,7 +3301,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>24</v>
       </c>
@@ -3275,22 +3310,22 @@
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
-        <v>0</v>
+        <v>277116</v>
       </c>
       <c r="F131" s="9">
-        <v>277116</v>
+        <v>179017</v>
       </c>
       <c r="G131" s="9">
-        <v>179017</v>
+        <v>304170</v>
       </c>
       <c r="H131" s="9">
-        <v>304170</v>
+        <v>370562</v>
       </c>
       <c r="I131" s="9">
-        <v>370562</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>381439</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>26</v>
       </c>
@@ -3299,22 +3334,22 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>0</v>
+        <v>45609</v>
       </c>
       <c r="F132" s="11">
-        <v>45609</v>
+        <v>-42874</v>
       </c>
       <c r="G132" s="11">
-        <v>-42874</v>
+        <v>270</v>
       </c>
       <c r="H132" s="11">
-        <v>270</v>
+        <v>643</v>
       </c>
       <c r="I132" s="11">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>28</v>
       </c>
@@ -3323,22 +3358,22 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>0</v>
+        <v>153981</v>
       </c>
       <c r="F133" s="9">
-        <v>153981</v>
+        <v>102180</v>
       </c>
       <c r="G133" s="9">
-        <v>102180</v>
+        <v>96460</v>
       </c>
       <c r="H133" s="9">
-        <v>96460</v>
+        <v>124496</v>
       </c>
       <c r="I133" s="9">
-        <v>124496</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>131449</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>29</v>
       </c>
@@ -3347,22 +3382,22 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>1195065</v>
+        <v>-616648</v>
       </c>
       <c r="F134" s="11">
-        <v>-616648</v>
+        <v>603771</v>
       </c>
       <c r="G134" s="11">
-        <v>603771</v>
+        <v>330347</v>
       </c>
       <c r="H134" s="11">
-        <v>330347</v>
+        <v>539474</v>
       </c>
       <c r="I134" s="11">
-        <v>539474</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+        <v>348725</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>30</v>
       </c>
@@ -3371,22 +3406,22 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>0</v>
+        <v>15322</v>
       </c>
       <c r="F135" s="9">
-        <v>15322</v>
+        <v>10219</v>
       </c>
       <c r="G135" s="9">
-        <v>10219</v>
+        <v>3851</v>
       </c>
       <c r="H135" s="9">
-        <v>3851</v>
+        <v>8101</v>
       </c>
       <c r="I135" s="9">
-        <v>8101</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12225</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>31</v>
       </c>
@@ -3395,22 +3430,22 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>0</v>
+        <v>344622</v>
       </c>
       <c r="F136" s="11">
-        <v>344622</v>
+        <v>219272</v>
       </c>
       <c r="G136" s="11">
-        <v>219272</v>
+        <v>185237</v>
       </c>
       <c r="H136" s="11">
-        <v>185237</v>
+        <v>219007</v>
       </c>
       <c r="I136" s="11">
-        <v>219007</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+        <v>205856</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>32</v>
       </c>
@@ -3419,22 +3454,22 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>0</v>
+        <v>162821</v>
       </c>
       <c r="F137" s="9">
-        <v>162821</v>
+        <v>82796</v>
       </c>
       <c r="G137" s="9">
-        <v>82796</v>
+        <v>77729</v>
       </c>
       <c r="H137" s="9">
-        <v>77729</v>
+        <v>91396</v>
       </c>
       <c r="I137" s="9">
-        <v>91396</v>
-      </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100476</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>33</v>
       </c>
@@ -3443,22 +3478,22 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>0</v>
+        <v>149258</v>
       </c>
       <c r="F138" s="11">
-        <v>149258</v>
+        <v>64265</v>
       </c>
       <c r="G138" s="11">
-        <v>64265</v>
+        <v>63891</v>
       </c>
       <c r="H138" s="11">
-        <v>63891</v>
+        <v>75110</v>
       </c>
       <c r="I138" s="11">
-        <v>75110</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92608</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>34</v>
       </c>
@@ -3467,22 +3502,22 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>0</v>
+        <v>295800</v>
       </c>
       <c r="F139" s="9">
-        <v>295800</v>
+        <v>22420</v>
       </c>
       <c r="G139" s="9">
-        <v>22420</v>
+        <v>112856</v>
       </c>
       <c r="H139" s="9">
-        <v>112856</v>
+        <v>124070</v>
       </c>
       <c r="I139" s="9">
-        <v>124070</v>
-      </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+        <v>313918</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>35</v>
       </c>
@@ -3491,22 +3526,22 @@
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
-        <v>0</v>
+        <v>399598</v>
       </c>
       <c r="F140" s="11">
-        <v>399598</v>
+        <v>296643</v>
       </c>
       <c r="G140" s="11">
-        <v>296643</v>
+        <v>241536</v>
       </c>
       <c r="H140" s="11">
-        <v>241536</v>
+        <v>628860</v>
       </c>
       <c r="I140" s="11">
-        <v>628860</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+        <v>564705</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>36</v>
       </c>
@@ -3515,44 +3550,44 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>0</v>
+        <v>429123</v>
       </c>
       <c r="F141" s="9">
-        <v>429123</v>
+        <v>231118</v>
       </c>
       <c r="G141" s="9">
-        <v>231118</v>
+        <v>260589</v>
       </c>
       <c r="H141" s="9">
-        <v>260589</v>
+        <v>314467</v>
       </c>
       <c r="I141" s="9">
-        <v>314467</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+        <v>341060</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
-        <v>1195065</v>
+        <v>1656602</v>
       </c>
       <c r="F142" s="13">
-        <v>1656602</v>
+        <v>1768827</v>
       </c>
       <c r="G142" s="13">
-        <v>1768827</v>
+        <v>1676936</v>
       </c>
       <c r="H142" s="13">
-        <v>1676936</v>
+        <v>2496186</v>
       </c>
       <c r="I142" s="13">
-        <v>2496186</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2493138</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3562,7 +3597,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3572,7 +3607,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3582,7 +3617,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B146" s="7" t="s">
         <v>44</v>
       </c>
@@ -3604,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3614,7 +3649,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="8" t="s">
         <v>24</v>
       </c>
@@ -3623,22 +3658,22 @@
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
-        <v>2885</v>
+        <v>5098</v>
       </c>
       <c r="F148" s="9">
-        <v>5098</v>
+        <v>22076</v>
       </c>
       <c r="G148" s="9">
-        <v>22076</v>
+        <v>14404</v>
       </c>
       <c r="H148" s="9">
-        <v>14404</v>
+        <v>12049</v>
       </c>
       <c r="I148" s="9">
-        <v>12049</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11618</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="10" t="s">
         <v>26</v>
       </c>
@@ -3647,22 +3682,22 @@
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
-        <v>4342</v>
+        <v>5036</v>
       </c>
       <c r="F149" s="11">
-        <v>5036</v>
+        <v>5220</v>
       </c>
       <c r="G149" s="11">
-        <v>5220</v>
+        <v>4950</v>
       </c>
       <c r="H149" s="11">
-        <v>4950</v>
+        <v>4846</v>
       </c>
       <c r="I149" s="11">
-        <v>4846</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>28</v>
       </c>
@@ -3671,22 +3706,22 @@
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9">
-        <v>8210</v>
+        <v>41148</v>
       </c>
       <c r="F150" s="9">
-        <v>41148</v>
+        <v>44923</v>
       </c>
       <c r="G150" s="9">
-        <v>44923</v>
+        <v>79631</v>
       </c>
       <c r="H150" s="9">
-        <v>79631</v>
+        <v>33960</v>
       </c>
       <c r="I150" s="9">
-        <v>33960</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50328</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>29</v>
       </c>
@@ -3695,22 +3730,22 @@
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
-        <v>1045832</v>
+        <v>875039</v>
       </c>
       <c r="F151" s="11">
-        <v>875039</v>
+        <v>985931</v>
       </c>
       <c r="G151" s="11">
-        <v>985931</v>
+        <v>911764</v>
       </c>
       <c r="H151" s="11">
-        <v>911764</v>
+        <v>904421</v>
       </c>
       <c r="I151" s="11">
-        <v>904421</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+        <v>842735</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>30</v>
       </c>
@@ -3719,22 +3754,22 @@
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
-        <v>82920</v>
+        <v>113827</v>
       </c>
       <c r="F152" s="9">
-        <v>113827</v>
+        <v>56090</v>
       </c>
       <c r="G152" s="9">
-        <v>56090</v>
+        <v>52239</v>
       </c>
       <c r="H152" s="9">
-        <v>52239</v>
+        <v>44138</v>
       </c>
       <c r="I152" s="9">
-        <v>44138</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31913</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>31</v>
       </c>
@@ -3743,22 +3778,22 @@
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
-        <v>142041</v>
+        <v>178306</v>
       </c>
       <c r="F153" s="11">
-        <v>178306</v>
+        <v>165006</v>
       </c>
       <c r="G153" s="11">
-        <v>165006</v>
+        <v>149857</v>
       </c>
       <c r="H153" s="11">
-        <v>149857</v>
+        <v>166632</v>
       </c>
       <c r="I153" s="11">
-        <v>166632</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+        <v>198044</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>32</v>
       </c>
@@ -3767,22 +3802,22 @@
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
-        <v>60777</v>
+        <v>62033</v>
       </c>
       <c r="F154" s="9">
-        <v>62033</v>
+        <v>95400</v>
       </c>
       <c r="G154" s="9">
-        <v>95400</v>
+        <v>78983</v>
       </c>
       <c r="H154" s="9">
-        <v>78983</v>
+        <v>78763</v>
       </c>
       <c r="I154" s="9">
-        <v>78763</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>97352</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>33</v>
       </c>
@@ -3791,22 +3826,22 @@
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
-        <v>329282</v>
+        <v>192276</v>
       </c>
       <c r="F155" s="11">
-        <v>192276</v>
+        <v>276105</v>
       </c>
       <c r="G155" s="11">
-        <v>276105</v>
+        <v>278814</v>
       </c>
       <c r="H155" s="11">
-        <v>278814</v>
+        <v>222524</v>
       </c>
       <c r="I155" s="11">
-        <v>222524</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>130315</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>34</v>
       </c>
@@ -3815,22 +3850,22 @@
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
-        <v>48960</v>
+        <v>60075</v>
       </c>
       <c r="F156" s="9">
-        <v>60075</v>
+        <v>74129</v>
       </c>
       <c r="G156" s="9">
-        <v>74129</v>
+        <v>49063</v>
       </c>
       <c r="H156" s="9">
-        <v>49063</v>
+        <v>31103</v>
       </c>
       <c r="I156" s="9">
-        <v>31103</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48933</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>35</v>
       </c>
@@ -3839,22 +3874,22 @@
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
-        <v>148871</v>
+        <v>58874</v>
       </c>
       <c r="F157" s="11">
-        <v>58874</v>
+        <v>73260</v>
       </c>
       <c r="G157" s="11">
-        <v>73260</v>
+        <v>385416</v>
       </c>
       <c r="H157" s="11">
-        <v>385416</v>
+        <v>399110</v>
       </c>
       <c r="I157" s="11">
-        <v>399110</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+        <v>254086</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>36</v>
       </c>
@@ -3863,44 +3898,44 @@
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
-        <v>97506</v>
+        <v>114726</v>
       </c>
       <c r="F158" s="9">
-        <v>114726</v>
+        <v>57051</v>
       </c>
       <c r="G158" s="9">
-        <v>57051</v>
+        <v>97037</v>
       </c>
       <c r="H158" s="9">
-        <v>97037</v>
+        <v>139801</v>
       </c>
       <c r="I158" s="9">
-        <v>139801</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>74775</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
-        <v>1971626</v>
+        <v>1706438</v>
       </c>
       <c r="F159" s="13">
-        <v>1706438</v>
+        <v>1855191</v>
       </c>
       <c r="G159" s="13">
-        <v>1855191</v>
+        <v>2102158</v>
       </c>
       <c r="H159" s="13">
-        <v>2102158</v>
+        <v>2037347</v>
       </c>
       <c r="I159" s="13">
-        <v>2037347</v>
-      </c>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1745203</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3910,7 +3945,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3920,7 +3955,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3930,7 +3965,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>45</v>
       </c>
@@ -3952,7 +3987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3962,7 +3997,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>24</v>
       </c>
@@ -3974,19 +4009,19 @@
         <v>45678</v>
       </c>
       <c r="F165" s="9">
-        <v>45678</v>
+        <v>73252</v>
       </c>
       <c r="G165" s="9">
-        <v>73252</v>
+        <v>96423</v>
       </c>
       <c r="H165" s="9">
-        <v>96423</v>
+        <v>160224</v>
       </c>
       <c r="I165" s="9">
-        <v>160224</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+        <v>161625</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>26</v>
       </c>
@@ -3998,19 +4033,19 @@
         <v>4140</v>
       </c>
       <c r="F166" s="11">
-        <v>4140</v>
+        <v>5447</v>
       </c>
       <c r="G166" s="11">
-        <v>5447</v>
+        <v>5480</v>
       </c>
       <c r="H166" s="11">
-        <v>5480</v>
+        <v>5374</v>
       </c>
       <c r="I166" s="11">
-        <v>5374</v>
-      </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>28</v>
       </c>
@@ -4022,19 +4057,19 @@
         <v>87838</v>
       </c>
       <c r="F167" s="9">
-        <v>87838</v>
+        <v>96374</v>
       </c>
       <c r="G167" s="9">
-        <v>96374</v>
+        <v>118825</v>
       </c>
       <c r="H167" s="9">
-        <v>118825</v>
+        <v>156908</v>
       </c>
       <c r="I167" s="9">
-        <v>156908</v>
-      </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+        <v>185442</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>29</v>
       </c>
@@ -4048,17 +4083,17 @@
       <c r="F168" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G168" s="11" t="s">
-        <v>48</v>
+      <c r="G168" s="11">
+        <v>41902</v>
       </c>
       <c r="H168" s="11">
-        <v>41902</v>
+        <v>61102</v>
       </c>
       <c r="I168" s="11">
-        <v>61102</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+        <v>61427</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>30</v>
       </c>
@@ -4070,19 +4105,19 @@
         <v>242756</v>
       </c>
       <c r="F169" s="9">
-        <v>242756</v>
+        <v>414293</v>
       </c>
       <c r="G169" s="9">
-        <v>414293</v>
+        <v>240266</v>
       </c>
       <c r="H169" s="9">
-        <v>240266</v>
+        <v>238861</v>
       </c>
       <c r="I169" s="9">
-        <v>238861</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+        <v>232519</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>31</v>
       </c>
@@ -4094,19 +4129,19 @@
         <v>665687</v>
       </c>
       <c r="F170" s="11">
-        <v>665687</v>
+        <v>851456</v>
       </c>
       <c r="G170" s="11">
-        <v>851456</v>
+        <v>777861</v>
       </c>
       <c r="H170" s="11">
-        <v>777861</v>
+        <v>778935</v>
       </c>
       <c r="I170" s="11">
-        <v>778935</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+        <v>815185</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>32</v>
       </c>
@@ -4118,19 +4153,19 @@
         <v>2538</v>
       </c>
       <c r="F171" s="9">
-        <v>2538</v>
+        <v>2893</v>
       </c>
       <c r="G171" s="9">
-        <v>2893</v>
+        <v>3710</v>
       </c>
       <c r="H171" s="9">
-        <v>3710</v>
+        <v>3425</v>
       </c>
       <c r="I171" s="9">
-        <v>3425</v>
-      </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>33</v>
       </c>
@@ -4142,19 +4177,19 @@
         <v>622451</v>
       </c>
       <c r="F172" s="11">
-        <v>622451</v>
+        <v>665135</v>
       </c>
       <c r="G172" s="11">
-        <v>665135</v>
+        <v>690440</v>
       </c>
       <c r="H172" s="11">
-        <v>690440</v>
+        <v>742803</v>
       </c>
       <c r="I172" s="11">
-        <v>742803</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+        <v>763279</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>34</v>
       </c>
@@ -4166,19 +4201,19 @@
         <v>72350</v>
       </c>
       <c r="F173" s="9">
-        <v>72350</v>
+        <v>91014</v>
       </c>
       <c r="G173" s="9">
-        <v>91014</v>
+        <v>112805</v>
       </c>
       <c r="H173" s="9">
-        <v>112805</v>
+        <v>108900</v>
       </c>
       <c r="I173" s="9">
-        <v>108900</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92238</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>35</v>
       </c>
@@ -4190,19 +4225,19 @@
         <v>253881</v>
       </c>
       <c r="F174" s="11">
-        <v>253881</v>
+        <v>253985</v>
       </c>
       <c r="G174" s="11">
-        <v>253985</v>
+        <v>167476</v>
       </c>
       <c r="H174" s="11">
-        <v>167476</v>
+        <v>648448</v>
       </c>
       <c r="I174" s="11">
-        <v>648448</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+        <v>818373</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>36</v>
       </c>
@@ -4214,19 +4249,19 @@
         <v>120770</v>
       </c>
       <c r="F175" s="9">
-        <v>120770</v>
+        <v>129342</v>
       </c>
       <c r="G175" s="9">
-        <v>129342</v>
+        <v>132163</v>
       </c>
       <c r="H175" s="9">
-        <v>132163</v>
+        <v>182861</v>
       </c>
       <c r="I175" s="9">
-        <v>182861</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+        <v>186992</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4236,7 +4271,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4246,7 +4281,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4256,7 +4291,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>49</v>
       </c>
@@ -4278,7 +4313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4288,7 +4323,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>24</v>
       </c>
@@ -4296,23 +4331,23 @@
         <v>46</v>
       </c>
       <c r="D181" s="9"/>
-      <c r="E181" s="9" t="s">
-        <v>48</v>
+      <c r="E181" s="9">
+        <v>61246</v>
       </c>
       <c r="F181" s="9">
-        <v>61246</v>
+        <v>72751</v>
       </c>
       <c r="G181" s="9">
-        <v>72751</v>
+        <v>139868</v>
       </c>
       <c r="H181" s="9">
-        <v>139868</v>
+        <v>205431</v>
       </c>
       <c r="I181" s="9">
-        <v>205431</v>
-      </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127802</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>26</v>
       </c>
@@ -4320,23 +4355,23 @@
         <v>47</v>
       </c>
       <c r="D182" s="11"/>
-      <c r="E182" s="11" t="s">
+      <c r="E182" s="11">
+        <v>5354</v>
+      </c>
+      <c r="F182" s="11">
+        <v>5091</v>
+      </c>
+      <c r="G182" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F182" s="11">
-        <v>5354</v>
-      </c>
-      <c r="G182" s="11">
-        <v>5091</v>
-      </c>
-      <c r="H182" s="11" t="s">
-        <v>48</v>
+      <c r="H182" s="11">
+        <v>9536</v>
       </c>
       <c r="I182" s="11">
-        <v>9536</v>
-      </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9823</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>28</v>
       </c>
@@ -4344,23 +4379,23 @@
         <v>46</v>
       </c>
       <c r="D183" s="9"/>
-      <c r="E183" s="9" t="s">
-        <v>48</v>
+      <c r="E183" s="9">
+        <v>88545</v>
       </c>
       <c r="F183" s="9">
-        <v>88545</v>
+        <v>112444</v>
       </c>
       <c r="G183" s="9">
-        <v>112444</v>
+        <v>146738</v>
       </c>
       <c r="H183" s="9">
-        <v>146738</v>
+        <v>185462</v>
       </c>
       <c r="I183" s="9">
-        <v>185462</v>
-      </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+        <v>181099</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>29</v>
       </c>
@@ -4369,22 +4404,22 @@
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11">
-        <v>573829</v>
+        <v>-25365</v>
       </c>
       <c r="F184" s="11">
-        <v>-25365</v>
+        <v>19941</v>
       </c>
       <c r="G184" s="11">
-        <v>19941</v>
+        <v>37511</v>
       </c>
       <c r="H184" s="11">
-        <v>37511</v>
+        <v>-360723</v>
       </c>
       <c r="I184" s="11">
-        <v>-360723</v>
-      </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+        <v>81045</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>30</v>
       </c>
@@ -4392,11 +4427,11 @@
         <v>46</v>
       </c>
       <c r="D185" s="9"/>
-      <c r="E185" s="9" t="s">
+      <c r="E185" s="9">
+        <v>-9380885</v>
+      </c>
+      <c r="F185" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="F185" s="9">
-        <v>-9380885</v>
       </c>
       <c r="G185" s="9" t="s">
         <v>48</v>
@@ -4408,7 +4443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>31</v>
       </c>
@@ -4416,23 +4451,23 @@
         <v>47</v>
       </c>
       <c r="D186" s="11"/>
-      <c r="E186" s="11" t="s">
-        <v>48</v>
+      <c r="E186" s="11">
+        <v>885144</v>
       </c>
       <c r="F186" s="11">
-        <v>885144</v>
+        <v>846618</v>
       </c>
       <c r="G186" s="11">
-        <v>846618</v>
+        <v>940705</v>
       </c>
       <c r="H186" s="11">
-        <v>940705</v>
+        <v>977031</v>
       </c>
       <c r="I186" s="11">
-        <v>977031</v>
-      </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+        <v>741613</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>32</v>
       </c>
@@ -4440,23 +4475,23 @@
         <v>47</v>
       </c>
       <c r="D187" s="9"/>
-      <c r="E187" s="9" t="s">
-        <v>48</v>
+      <c r="E187" s="9">
+        <v>2402</v>
       </c>
       <c r="F187" s="9">
-        <v>2402</v>
+        <v>4056</v>
       </c>
       <c r="G187" s="9">
-        <v>4056</v>
+        <v>3033</v>
       </c>
       <c r="H187" s="9">
-        <v>3033</v>
+        <v>2169</v>
       </c>
       <c r="I187" s="9">
-        <v>2169</v>
-      </c>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>33</v>
       </c>
@@ -4464,23 +4499,23 @@
         <v>46</v>
       </c>
       <c r="D188" s="11"/>
-      <c r="E188" s="11" t="s">
-        <v>48</v>
+      <c r="E188" s="11">
+        <v>-1774623</v>
       </c>
       <c r="F188" s="11">
-        <v>-1774623</v>
+        <v>685620</v>
       </c>
       <c r="G188" s="11">
-        <v>685620</v>
+        <v>1027778</v>
       </c>
       <c r="H188" s="11">
-        <v>1027778</v>
+        <v>888155</v>
       </c>
       <c r="I188" s="11">
-        <v>888155</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1287097</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>34</v>
       </c>
@@ -4488,23 +4523,23 @@
         <v>47</v>
       </c>
       <c r="D189" s="9"/>
-      <c r="E189" s="9" t="s">
-        <v>48</v>
+      <c r="E189" s="9">
+        <v>95607</v>
       </c>
       <c r="F189" s="9">
-        <v>95607</v>
+        <v>-89178</v>
       </c>
       <c r="G189" s="9">
-        <v>-89178</v>
+        <v>129971</v>
       </c>
       <c r="H189" s="9">
-        <v>129971</v>
+        <v>133961</v>
       </c>
       <c r="I189" s="9">
-        <v>133961</v>
-      </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116149</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>35</v>
       </c>
@@ -4512,23 +4547,23 @@
         <v>46</v>
       </c>
       <c r="D190" s="11"/>
-      <c r="E190" s="11" t="s">
-        <v>48</v>
+      <c r="E190" s="11">
+        <v>142545</v>
       </c>
       <c r="F190" s="11">
-        <v>142545</v>
+        <v>219935</v>
       </c>
       <c r="G190" s="11">
-        <v>219935</v>
+        <v>469570</v>
       </c>
       <c r="H190" s="11">
-        <v>469570</v>
+        <v>573973</v>
       </c>
       <c r="I190" s="11">
-        <v>573973</v>
-      </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+        <v>639600</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>36</v>
       </c>
@@ -4536,23 +4571,23 @@
         <v>46</v>
       </c>
       <c r="D191" s="9"/>
-      <c r="E191" s="9" t="s">
-        <v>48</v>
+      <c r="E191" s="9">
+        <v>126131</v>
       </c>
       <c r="F191" s="9">
-        <v>126131</v>
+        <v>134843</v>
       </c>
       <c r="G191" s="9">
-        <v>134843</v>
+        <v>174210</v>
       </c>
       <c r="H191" s="9">
-        <v>174210</v>
+        <v>186622</v>
       </c>
       <c r="I191" s="9">
-        <v>186622</v>
-      </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+        <v>190214</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4562,7 +4597,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4572,7 +4607,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4582,7 +4617,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B195" s="7" t="s">
         <v>50</v>
       </c>
@@ -4604,7 +4639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4614,7 +4649,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>24</v>
       </c>
@@ -4622,23 +4657,23 @@
         <v>46</v>
       </c>
       <c r="D197" s="9"/>
-      <c r="E197" s="9" t="s">
-        <v>48</v>
+      <c r="E197" s="9">
+        <v>60846</v>
       </c>
       <c r="F197" s="9">
-        <v>60846</v>
+        <v>70627</v>
       </c>
       <c r="G197" s="9">
-        <v>70627</v>
+        <v>134655</v>
       </c>
       <c r="H197" s="9">
-        <v>134655</v>
+        <v>204990</v>
       </c>
       <c r="I197" s="9">
-        <v>204990</v>
-      </c>
-    </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127903</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>26</v>
       </c>
@@ -4646,23 +4681,23 @@
         <v>47</v>
       </c>
       <c r="D198" s="11"/>
-      <c r="E198" s="11" t="s">
-        <v>48</v>
+      <c r="E198" s="11">
+        <v>5199</v>
       </c>
       <c r="F198" s="11">
-        <v>5199</v>
+        <v>5096</v>
       </c>
       <c r="G198" s="11">
-        <v>5096</v>
+        <v>8571</v>
       </c>
       <c r="H198" s="11">
-        <v>8571</v>
+        <v>9072</v>
       </c>
       <c r="I198" s="11">
-        <v>9072</v>
-      </c>
-    </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12642</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>28</v>
       </c>
@@ -4670,23 +4705,23 @@
         <v>46</v>
       </c>
       <c r="D199" s="9"/>
-      <c r="E199" s="9" t="s">
-        <v>48</v>
+      <c r="E199" s="9">
+        <v>86627</v>
       </c>
       <c r="F199" s="9">
-        <v>86627</v>
+        <v>103088</v>
       </c>
       <c r="G199" s="9">
-        <v>103088</v>
+        <v>126183</v>
       </c>
       <c r="H199" s="9">
-        <v>126183</v>
+        <v>166129</v>
       </c>
       <c r="I199" s="9">
-        <v>166129</v>
-      </c>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+        <v>184103</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="10" t="s">
         <v>29</v>
       </c>
@@ -4695,22 +4730,22 @@
       </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11">
-        <v>7552517</v>
+        <v>-36153</v>
       </c>
       <c r="F200" s="11">
-        <v>-36153</v>
+        <v>21081</v>
       </c>
       <c r="G200" s="11">
-        <v>21081</v>
+        <v>21400</v>
       </c>
       <c r="H200" s="11">
-        <v>21400</v>
+        <v>-422531</v>
       </c>
       <c r="I200" s="11">
-        <v>-422531</v>
-      </c>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+        <v>124845</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="8" t="s">
         <v>30</v>
       </c>
@@ -4718,23 +4753,23 @@
         <v>46</v>
       </c>
       <c r="D201" s="9"/>
-      <c r="E201" s="9" t="s">
-        <v>48</v>
+      <c r="E201" s="9">
+        <v>247528</v>
       </c>
       <c r="F201" s="9">
-        <v>247528</v>
+        <v>247433</v>
       </c>
       <c r="G201" s="9">
-        <v>247433</v>
+        <v>261085</v>
       </c>
       <c r="H201" s="9">
-        <v>261085</v>
+        <v>280554</v>
       </c>
       <c r="I201" s="9">
-        <v>280554</v>
-      </c>
-    </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+        <v>273337</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="10" t="s">
         <v>31</v>
       </c>
@@ -4742,23 +4777,23 @@
         <v>47</v>
       </c>
       <c r="D202" s="11"/>
-      <c r="E202" s="11" t="s">
-        <v>48</v>
+      <c r="E202" s="11">
+        <v>793561</v>
       </c>
       <c r="F202" s="11">
-        <v>793561</v>
+        <v>911457</v>
       </c>
       <c r="G202" s="11">
-        <v>911457</v>
+        <v>923645</v>
       </c>
       <c r="H202" s="11">
-        <v>923645</v>
+        <v>955103</v>
       </c>
       <c r="I202" s="11">
-        <v>955103</v>
-      </c>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1004342</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="8" t="s">
         <v>32</v>
       </c>
@@ -4766,23 +4801,23 @@
         <v>47</v>
       </c>
       <c r="D203" s="9"/>
-      <c r="E203" s="9" t="s">
-        <v>48</v>
+      <c r="E203" s="9">
+        <v>2300</v>
       </c>
       <c r="F203" s="9">
-        <v>2300</v>
+        <v>3397</v>
       </c>
       <c r="G203" s="9">
-        <v>3397</v>
+        <v>3399</v>
       </c>
       <c r="H203" s="9">
-        <v>3399</v>
+        <v>1991</v>
       </c>
       <c r="I203" s="9">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="10" t="s">
         <v>33</v>
       </c>
@@ -4790,23 +4825,23 @@
         <v>46</v>
       </c>
       <c r="D204" s="11"/>
-      <c r="E204" s="11" t="s">
-        <v>48</v>
+      <c r="E204" s="11">
+        <v>640518</v>
       </c>
       <c r="F204" s="11">
-        <v>640518</v>
+        <v>610994</v>
       </c>
       <c r="G204" s="11">
-        <v>610994</v>
+        <v>715120</v>
       </c>
       <c r="H204" s="11">
-        <v>715120</v>
+        <v>715286</v>
       </c>
       <c r="I204" s="11">
-        <v>715286</v>
-      </c>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+        <v>724066</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>34</v>
       </c>
@@ -4814,23 +4849,23 @@
         <v>47</v>
       </c>
       <c r="D205" s="9"/>
-      <c r="E205" s="9" t="s">
-        <v>48</v>
+      <c r="E205" s="9">
+        <v>91670</v>
       </c>
       <c r="F205" s="9">
-        <v>91670</v>
+        <v>-55211</v>
       </c>
       <c r="G205" s="9">
-        <v>-55211</v>
+        <v>127945</v>
       </c>
       <c r="H205" s="9">
-        <v>127945</v>
+        <v>137029</v>
       </c>
       <c r="I205" s="9">
-        <v>137029</v>
-      </c>
-    </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+        <v>117629</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>35</v>
       </c>
@@ -4838,23 +4873,23 @@
         <v>46</v>
       </c>
       <c r="D206" s="11"/>
-      <c r="E206" s="11" t="s">
-        <v>48</v>
+      <c r="E206" s="11">
+        <v>158161</v>
       </c>
       <c r="F206" s="11">
-        <v>158161</v>
+        <v>245454</v>
       </c>
       <c r="G206" s="11">
-        <v>245454</v>
+        <v>236286</v>
       </c>
       <c r="H206" s="11">
-        <v>236286</v>
+        <v>512868</v>
       </c>
       <c r="I206" s="11">
-        <v>512868</v>
-      </c>
-    </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+        <v>697262</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>36</v>
       </c>
@@ -4862,23 +4897,23 @@
         <v>46</v>
       </c>
       <c r="D207" s="9"/>
-      <c r="E207" s="9" t="s">
-        <v>48</v>
+      <c r="E207" s="9">
+        <v>124057</v>
       </c>
       <c r="F207" s="9">
-        <v>124057</v>
+        <v>132705</v>
       </c>
       <c r="G207" s="9">
-        <v>132705</v>
+        <v>160227</v>
       </c>
       <c r="H207" s="9">
-        <v>160227</v>
+        <v>185282</v>
       </c>
       <c r="I207" s="9">
-        <v>185282</v>
-      </c>
-    </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+        <v>188540</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4888,7 +4923,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4898,7 +4933,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4908,7 +4943,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B211" s="7" t="s">
         <v>51</v>
       </c>
@@ -4930,7 +4965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4940,7 +4975,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>24</v>
       </c>
@@ -4949,22 +4984,22 @@
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
-        <v>45678</v>
+        <v>73252</v>
       </c>
       <c r="F213" s="9">
-        <v>73252</v>
+        <v>96423</v>
       </c>
       <c r="G213" s="9">
-        <v>96423</v>
+        <v>160224</v>
       </c>
       <c r="H213" s="9">
-        <v>160224</v>
+        <v>161625</v>
       </c>
       <c r="I213" s="9">
-        <v>161625</v>
-      </c>
-    </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+        <v>157993</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>26</v>
       </c>
@@ -4973,22 +5008,22 @@
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11">
-        <v>4140</v>
+        <v>5447</v>
       </c>
       <c r="F214" s="11">
-        <v>5447</v>
+        <v>5480</v>
       </c>
       <c r="G214" s="11">
-        <v>5480</v>
+        <v>5374</v>
       </c>
       <c r="H214" s="11">
-        <v>5374</v>
+        <v>5344</v>
       </c>
       <c r="I214" s="11">
-        <v>5344</v>
-      </c>
-    </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5382</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>28</v>
       </c>
@@ -4997,22 +5032,22 @@
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9">
-        <v>87838</v>
+        <v>96374</v>
       </c>
       <c r="F215" s="9">
-        <v>96374</v>
+        <v>118825</v>
       </c>
       <c r="G215" s="9">
-        <v>118825</v>
+        <v>156908</v>
       </c>
       <c r="H215" s="9">
-        <v>156908</v>
+        <v>185442</v>
       </c>
       <c r="I215" s="9">
-        <v>185442</v>
-      </c>
-    </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+        <v>176371</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>29</v>
       </c>
@@ -5021,22 +5056,22 @@
       </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11">
-        <v>446538</v>
+        <v>53583</v>
       </c>
       <c r="F216" s="11">
-        <v>53583</v>
+        <v>41902</v>
       </c>
       <c r="G216" s="11">
-        <v>41902</v>
+        <v>61102</v>
       </c>
       <c r="H216" s="11">
-        <v>61102</v>
+        <v>61427</v>
       </c>
       <c r="I216" s="11">
-        <v>61427</v>
-      </c>
-    </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54469</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="8" t="s">
         <v>30</v>
       </c>
@@ -5045,22 +5080,22 @@
       </c>
       <c r="D217" s="9"/>
       <c r="E217" s="9">
-        <v>242756</v>
+        <v>414293</v>
       </c>
       <c r="F217" s="9">
-        <v>414293</v>
+        <v>240266</v>
       </c>
       <c r="G217" s="9">
-        <v>240266</v>
+        <v>238861</v>
       </c>
       <c r="H217" s="9">
-        <v>238861</v>
+        <v>232519</v>
       </c>
       <c r="I217" s="9">
-        <v>232519</v>
-      </c>
-    </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+        <v>219938</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="10" t="s">
         <v>31</v>
       </c>
@@ -5069,22 +5104,22 @@
       </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11">
-        <v>665687</v>
+        <v>851456</v>
       </c>
       <c r="F218" s="11">
-        <v>851456</v>
+        <v>777861</v>
       </c>
       <c r="G218" s="11">
-        <v>777861</v>
+        <v>778935</v>
       </c>
       <c r="H218" s="11">
-        <v>778935</v>
+        <v>815185</v>
       </c>
       <c r="I218" s="11">
-        <v>815185</v>
-      </c>
-    </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+        <v>620091</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="8" t="s">
         <v>32</v>
       </c>
@@ -5093,22 +5128,22 @@
       </c>
       <c r="D219" s="9"/>
       <c r="E219" s="9">
-        <v>2538</v>
+        <v>2893</v>
       </c>
       <c r="F219" s="9">
-        <v>2893</v>
+        <v>3710</v>
       </c>
       <c r="G219" s="9">
-        <v>3710</v>
+        <v>3425</v>
       </c>
       <c r="H219" s="9">
-        <v>3425</v>
+        <v>4104</v>
       </c>
       <c r="I219" s="9">
-        <v>4104</v>
-      </c>
-    </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B220" s="10" t="s">
         <v>33</v>
       </c>
@@ -5117,22 +5152,22 @@
       </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11">
-        <v>622451</v>
+        <v>665135</v>
       </c>
       <c r="F220" s="11">
-        <v>665135</v>
+        <v>690440</v>
       </c>
       <c r="G220" s="11">
-        <v>690440</v>
+        <v>742803</v>
       </c>
       <c r="H220" s="11">
-        <v>742803</v>
+        <v>763279</v>
       </c>
       <c r="I220" s="11">
-        <v>763279</v>
-      </c>
-    </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+        <v>794861</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="8" t="s">
         <v>34</v>
       </c>
@@ -5141,22 +5176,22 @@
       </c>
       <c r="D221" s="9"/>
       <c r="E221" s="9">
-        <v>72350</v>
+        <v>91014</v>
       </c>
       <c r="F221" s="9">
-        <v>91014</v>
+        <v>112805</v>
       </c>
       <c r="G221" s="9">
-        <v>112805</v>
+        <v>108900</v>
       </c>
       <c r="H221" s="9">
-        <v>108900</v>
+        <v>92238</v>
       </c>
       <c r="I221" s="9">
-        <v>92238</v>
-      </c>
-    </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+        <v>93253</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B222" s="10" t="s">
         <v>35</v>
       </c>
@@ -5165,22 +5200,22 @@
       </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11">
-        <v>253881</v>
+        <v>253985</v>
       </c>
       <c r="F222" s="11">
-        <v>253985</v>
+        <v>167476</v>
       </c>
       <c r="G222" s="11">
-        <v>167476</v>
+        <v>648448</v>
       </c>
       <c r="H222" s="11">
-        <v>648448</v>
+        <v>818373</v>
       </c>
       <c r="I222" s="11">
-        <v>818373</v>
-      </c>
-    </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+        <v>760828</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="8" t="s">
         <v>36</v>
       </c>
@@ -5189,22 +5224,22 @@
       </c>
       <c r="D223" s="9"/>
       <c r="E223" s="9">
-        <v>120770</v>
+        <v>129342</v>
       </c>
       <c r="F223" s="9">
-        <v>129342</v>
+        <v>132163</v>
       </c>
       <c r="G223" s="9">
-        <v>132163</v>
+        <v>182861</v>
       </c>
       <c r="H223" s="9">
-        <v>182861</v>
+        <v>186992</v>
       </c>
       <c r="I223" s="9">
-        <v>186992</v>
-      </c>
-    </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+        <v>191801</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -5214,7 +5249,7 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -5224,7 +5259,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -5234,7 +5269,7 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B227" s="7" t="s">
         <v>52</v>
       </c>
@@ -5256,7 +5291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -5266,20 +5301,20 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9">
-        <v>12989</v>
+        <v>16341</v>
       </c>
       <c r="F229" s="9">
-        <v>16341</v>
+        <v>23619</v>
       </c>
       <c r="G229" s="9">
-        <v>23619</v>
+        <v>0</v>
       </c>
       <c r="H229" s="9">
         <v>0</v>
@@ -5288,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" s="10" t="s">
         <v>54</v>
       </c>
@@ -5310,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B231" s="8" t="s">
         <v>55</v>
       </c>
@@ -5326,13 +5361,13 @@
         <v>0</v>
       </c>
       <c r="H231" s="9">
-        <v>0</v>
+        <v>17923</v>
       </c>
       <c r="I231" s="9">
-        <v>17923</v>
-      </c>
-    </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-17923</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" s="10" t="s">
         <v>56</v>
       </c>
@@ -5354,95 +5389,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9">
-        <v>46426</v>
+        <v>149347</v>
       </c>
       <c r="F233" s="9">
-        <v>149347</v>
+        <v>-48444</v>
       </c>
       <c r="G233" s="9">
-        <v>-48444</v>
+        <v>26911</v>
       </c>
       <c r="H233" s="9">
-        <v>26911</v>
+        <v>41484</v>
       </c>
       <c r="I233" s="9">
-        <v>41484</v>
-      </c>
-    </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-25932</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11">
-        <v>19509</v>
+        <v>6476</v>
       </c>
       <c r="F234" s="11">
-        <v>6476</v>
+        <v>28553</v>
       </c>
       <c r="G234" s="11">
-        <v>28553</v>
+        <v>27089</v>
       </c>
       <c r="H234" s="11">
-        <v>27089</v>
+        <v>16703</v>
       </c>
       <c r="I234" s="11">
-        <v>16703</v>
-      </c>
-    </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10619</v>
+      </c>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9">
-        <v>31220</v>
+        <v>46630</v>
       </c>
       <c r="F235" s="9">
-        <v>46630</v>
+        <v>48748</v>
       </c>
       <c r="G235" s="9">
-        <v>48748</v>
+        <v>51757</v>
       </c>
       <c r="H235" s="9">
-        <v>51757</v>
+        <v>51141</v>
       </c>
       <c r="I235" s="9">
-        <v>51141</v>
-      </c>
-    </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50964</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B236" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11">
-        <v>123739</v>
+        <v>138389</v>
       </c>
       <c r="F236" s="11">
-        <v>138389</v>
+        <v>169172</v>
       </c>
       <c r="G236" s="11">
-        <v>169172</v>
+        <v>260221</v>
       </c>
       <c r="H236" s="11">
-        <v>260221</v>
+        <v>113488</v>
       </c>
       <c r="I236" s="11">
-        <v>113488</v>
-      </c>
-    </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+        <v>226725</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" s="8" t="s">
         <v>61</v>
       </c>
@@ -5464,51 +5499,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11">
-        <v>99835</v>
+        <v>-78252</v>
       </c>
       <c r="F238" s="11">
-        <v>-78252</v>
+        <v>191778</v>
       </c>
       <c r="G238" s="11">
-        <v>191778</v>
+        <v>106371</v>
       </c>
       <c r="H238" s="11">
-        <v>106371</v>
+        <v>84758</v>
       </c>
       <c r="I238" s="11">
-        <v>84758</v>
-      </c>
-    </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+        <v>129471</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
       <c r="E239" s="15">
-        <v>333718</v>
+        <v>278931</v>
       </c>
       <c r="F239" s="15">
-        <v>278931</v>
+        <v>413426</v>
       </c>
       <c r="G239" s="15">
-        <v>413426</v>
+        <v>472349</v>
       </c>
       <c r="H239" s="15">
-        <v>472349</v>
+        <v>325497</v>
       </c>
       <c r="I239" s="15">
-        <v>325497</v>
-      </c>
-    </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+        <v>373924</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -5518,7 +5553,7 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -5528,7 +5563,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -5538,7 +5573,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B243" s="7" t="s">
         <v>63</v>
       </c>
@@ -5550,7 +5585,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -5560,7 +5595,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
         <v>64</v>
       </c>
@@ -5574,7 +5609,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B246" s="10" t="s">
         <v>66</v>
       </c>
@@ -5588,7 +5623,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B247" s="8" t="s">
         <v>68</v>
       </c>
@@ -5599,7 +5634,7 @@
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B248" s="10" t="s">
         <v>70</v>
       </c>
@@ -5610,7 +5645,7 @@
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B249" s="8" t="s">
         <v>72</v>
       </c>
@@ -5621,7 +5656,7 @@
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B250" s="10" t="s">
         <v>74</v>
       </c>
@@ -5632,7 +5667,7 @@
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B251" s="8" t="s">
         <v>76</v>
       </c>
@@ -5643,7 +5678,7 @@
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B252" s="10" t="s">
         <v>77</v>
       </c>
@@ -5654,7 +5689,7 @@
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B253" s="8" t="s">
         <v>78</v>
       </c>
@@ -5665,7 +5700,7 @@
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B254" s="10" t="s">
         <v>79</v>
       </c>
@@ -5676,7 +5711,7 @@
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B255" s="8" t="s">
         <v>80</v>
       </c>
@@ -5687,7 +5722,7 @@
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B256" s="10" t="s">
         <v>81</v>
       </c>
@@ -5698,7 +5733,7 @@
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="8" t="s">
         <v>82</v>
       </c>

--- a/database/industries/ghaza/ghepino/cost/quarterly.xlsx
+++ b/database/industries/ghaza/ghepino/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghepino\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghepino\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D850DE6-02B7-4528-9A2F-58CA91D3EBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922FC654-209B-486F-AAC5-4EE47BEEE26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -724,16 +739,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I257"/>
+  <dimension ref="B1:N257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -742,8 +757,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,8 +774,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -766,8 +791,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -776,8 +806,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -788,8 +823,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -800,8 +840,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -810,8 +855,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -832,8 +882,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -842,98 +907,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>732654</v>
+      </c>
+      <c r="F10" s="9">
+        <v>993434</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1225193</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1194589</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1195065</v>
+      </c>
+      <c r="J10" s="9">
         <v>1656602</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>1768827</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>1676936</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>2496186</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>2493138</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>181882</v>
+      </c>
+      <c r="F11" s="11">
+        <v>171052</v>
+      </c>
+      <c r="G11" s="11">
+        <v>242650</v>
+      </c>
+      <c r="H11" s="11">
+        <v>287877</v>
+      </c>
+      <c r="I11" s="11">
+        <v>217341</v>
+      </c>
+      <c r="J11" s="11">
         <v>256572</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>279638</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>428633</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>358267</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>421394</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>207224</v>
+      </c>
+      <c r="F12" s="9">
+        <v>205786</v>
+      </c>
+      <c r="G12" s="9">
+        <v>300653</v>
+      </c>
+      <c r="H12" s="9">
+        <v>310322</v>
+      </c>
+      <c r="I12" s="9">
+        <v>333718</v>
+      </c>
+      <c r="J12" s="9">
         <v>278931</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>413426</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>472349</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>325497</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>373924</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1121760</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1370272</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1768496</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1792788</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1746124</v>
+      </c>
+      <c r="J13" s="13">
         <v>2192105</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>2461891</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>2577918</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>3179950</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>3288456</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -952,54 +1082,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1121760</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1370272</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1768496</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1792788</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1746124</v>
+      </c>
+      <c r="J15" s="13">
         <v>2192105</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>2461891</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>2577918</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>3179950</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>3288456</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-12573</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-2957</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8638</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-15658</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-22088</v>
+      </c>
+      <c r="J16" s="9">
         <v>-14504</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>21127</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
         <v>-88191</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-11905</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1018,32 +1193,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1109187</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1367315</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1777134</v>
+      </c>
+      <c r="H18" s="15">
+        <v>1777130</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1724036</v>
+      </c>
+      <c r="J18" s="15">
         <v>2177601</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>2483018</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>2577918</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>3091759</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>3276551</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1051,65 +1256,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>6167</v>
       </c>
-      <c r="G19" s="11">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>1737</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-6990</v>
+      </c>
+      <c r="G20" s="9">
+        <v>9783</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-5852</v>
+      </c>
+      <c r="I20" s="9">
+        <v>3494</v>
+      </c>
+      <c r="J20" s="9">
         <v>-6167</v>
       </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
         <v>-5781</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1110924</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1360325</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1786917</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1771278</v>
+      </c>
+      <c r="I21" s="13">
+        <v>1727530</v>
+      </c>
+      <c r="J21" s="13">
         <v>2171434</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>2491543</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>2577918</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>3091759</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>3270770</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1128,30 +1378,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1110924</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1360325</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1786917</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1771278</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1727530</v>
+      </c>
+      <c r="J23" s="13">
         <v>2171434</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>2491543</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>2577918</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>3091759</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>3270770</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1160,8 +1440,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1170,8 +1455,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1180,10 +1470,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1202,8 +1497,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1212,294 +1522,479 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>57552</v>
+      </c>
+      <c r="F29" s="9">
+        <v>69922</v>
+      </c>
+      <c r="G29" s="9">
+        <v>52512</v>
+      </c>
+      <c r="H29" s="9">
+        <v>99450</v>
+      </c>
+      <c r="I29" s="9">
         <v>63160</v>
       </c>
-      <c r="F29" s="9">
+      <c r="J29" s="9">
+        <v>63160</v>
+      </c>
+      <c r="K29" s="9">
         <v>69595</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>228950</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>89899</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>74549</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>1049150</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1018570</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1038977</v>
+      </c>
+      <c r="H30" s="11">
+        <v>1078119</v>
+      </c>
+      <c r="I30" s="11">
         <v>1048778</v>
       </c>
-      <c r="F30" s="11">
+      <c r="J30" s="11">
+        <v>1048778</v>
+      </c>
+      <c r="K30" s="11">
         <v>924536</v>
       </c>
-      <c r="G30" s="11">
+      <c r="L30" s="11">
         <v>952621</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>921121</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>906761</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>46799</v>
+      </c>
+      <c r="F31" s="9">
+        <v>63406</v>
+      </c>
+      <c r="G31" s="9">
+        <v>67293</v>
+      </c>
+      <c r="H31" s="9">
+        <v>46426</v>
+      </c>
+      <c r="I31" s="9">
         <v>93467</v>
       </c>
-      <c r="F31" s="9">
+      <c r="J31" s="9">
+        <v>93467</v>
+      </c>
+      <c r="K31" s="9">
         <v>426960</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>378060</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>507502</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>183130</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
         <v>2342092</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>16330393</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>23529377</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>14921905</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>14723493</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>347331</v>
+      </c>
+      <c r="F33" s="9">
+        <v>309781</v>
+      </c>
+      <c r="G33" s="9">
+        <v>275706</v>
+      </c>
+      <c r="H33" s="9">
+        <v>227728</v>
+      </c>
+      <c r="I33" s="9">
         <v>341578</v>
       </c>
-      <c r="F33" s="9">
+      <c r="J33" s="9">
+        <v>341578</v>
+      </c>
+      <c r="K33" s="9">
         <v>274750</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>233450</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>218700</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>189825</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>229721</v>
+      </c>
+      <c r="F34" s="11">
+        <v>240271</v>
+      </c>
+      <c r="G34" s="11">
+        <v>250530</v>
+      </c>
+      <c r="H34" s="11">
+        <v>209503</v>
+      </c>
+      <c r="I34" s="11">
         <v>213375</v>
       </c>
-      <c r="F34" s="11">
+      <c r="J34" s="11">
+        <v>213375</v>
+      </c>
+      <c r="K34" s="11">
         <v>209413</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>212128</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>192387</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>204410</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>35151669</v>
+      </c>
+      <c r="F35" s="9">
+        <v>35338508</v>
+      </c>
+      <c r="G35" s="9">
+        <v>31611176</v>
+      </c>
+      <c r="H35" s="9">
+        <v>34183729</v>
+      </c>
+      <c r="I35" s="9">
         <v>23942873</v>
       </c>
-      <c r="F35" s="9">
+      <c r="J35" s="9">
+        <v>23942873</v>
+      </c>
+      <c r="K35" s="9">
         <v>21442633</v>
       </c>
-      <c r="G35" s="9">
+      <c r="L35" s="9">
         <v>25714224</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>23060731</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>19190766</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>617280</v>
+      </c>
+      <c r="F36" s="11">
+        <v>530680</v>
+      </c>
+      <c r="G36" s="11">
+        <v>599244</v>
+      </c>
+      <c r="H36" s="11">
+        <v>412693</v>
+      </c>
+      <c r="I36" s="11">
         <v>529009</v>
       </c>
-      <c r="F36" s="11">
+      <c r="J36" s="11">
+        <v>529009</v>
+      </c>
+      <c r="K36" s="11">
         <v>289078</v>
       </c>
-      <c r="G36" s="11">
+      <c r="L36" s="11">
         <v>399897</v>
       </c>
-      <c r="H36" s="11">
+      <c r="M36" s="11">
         <v>375354</v>
       </c>
-      <c r="I36" s="11">
+      <c r="N36" s="11">
         <v>291537</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
+        <v>683870</v>
+      </c>
+      <c r="F37" s="9">
+        <v>478581</v>
+      </c>
+      <c r="G37" s="9">
+        <v>650081</v>
+      </c>
+      <c r="H37" s="9">
+        <v>674855</v>
+      </c>
+      <c r="I37" s="9">
         <v>676712</v>
       </c>
-      <c r="F37" s="9">
+      <c r="J37" s="9">
+        <v>676712</v>
+      </c>
+      <c r="K37" s="9">
         <v>660066</v>
       </c>
-      <c r="G37" s="9">
+      <c r="L37" s="9">
         <v>657140</v>
       </c>
-      <c r="H37" s="9">
+      <c r="M37" s="9">
         <v>450533</v>
       </c>
-      <c r="I37" s="9">
+      <c r="N37" s="9">
         <v>337202</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>600203</v>
+      </c>
+      <c r="F38" s="11">
+        <v>616583</v>
+      </c>
+      <c r="G38" s="11">
+        <v>443263</v>
+      </c>
+      <c r="H38" s="11">
+        <v>598126</v>
+      </c>
+      <c r="I38" s="11">
         <v>586382</v>
       </c>
-      <c r="F38" s="11">
+      <c r="J38" s="11">
+        <v>586382</v>
+      </c>
+      <c r="K38" s="11">
         <v>231801</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>437436</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>594367</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>487687</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>1270075</v>
+      </c>
+      <c r="F39" s="9">
+        <v>3001567</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1731170</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1232244</v>
+      </c>
+      <c r="I39" s="9">
         <v>807370</v>
       </c>
-      <c r="F39" s="9">
+      <c r="J39" s="9">
+        <v>807370</v>
+      </c>
+      <c r="K39" s="9">
         <v>887000</v>
       </c>
-      <c r="G39" s="9">
+      <c r="L39" s="9">
         <v>431670</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>530660</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>747630</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
+        <v>40053650</v>
+      </c>
+      <c r="F40" s="13">
+        <v>41667869</v>
+      </c>
+      <c r="G40" s="13">
+        <v>36719952</v>
+      </c>
+      <c r="H40" s="13">
+        <v>38762873</v>
+      </c>
+      <c r="I40" s="13">
+        <v>28302704</v>
+      </c>
+      <c r="J40" s="13">
         <v>30644796</v>
       </c>
-      <c r="F40" s="13">
+      <c r="K40" s="13">
         <v>41746225</v>
       </c>
-      <c r="G40" s="13">
+      <c r="L40" s="13">
         <v>53174953</v>
       </c>
-      <c r="H40" s="13">
+      <c r="M40" s="13">
         <v>41863159</v>
       </c>
-      <c r="I40" s="13">
+      <c r="N40" s="13">
         <v>37336990</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1508,8 +2003,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1518,8 +2018,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1528,10 +2033,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1550,8 +2060,23 @@
       <c r="I44" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1560,294 +2085,479 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>1940250</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1973950</v>
+      </c>
+      <c r="G46" s="9">
+        <v>2900270</v>
+      </c>
+      <c r="H46" s="9">
+        <v>2081550</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9">
         <v>4560805</v>
       </c>
-      <c r="F46" s="9">
+      <c r="K46" s="9">
         <v>2694040</v>
       </c>
-      <c r="G46" s="9">
+      <c r="L46" s="9">
         <v>2119839</v>
       </c>
-      <c r="H46" s="9">
+      <c r="M46" s="9">
         <v>1792362</v>
       </c>
-      <c r="I46" s="9">
+      <c r="N46" s="9">
         <v>2981245</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>5550</v>
+      </c>
+      <c r="F47" s="11">
+        <v>60000</v>
+      </c>
+      <c r="G47" s="11">
+        <v>107084</v>
+      </c>
+      <c r="H47" s="11">
+        <v>17113</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0</v>
+      </c>
+      <c r="J47" s="11">
         <v>8648490</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>-8385772</v>
       </c>
-      <c r="G47" s="11">
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
         <v>56520</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>95183</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
+        <v>768800</v>
+      </c>
+      <c r="F48" s="9">
+        <v>675140</v>
+      </c>
+      <c r="G48" s="9">
+        <v>853610</v>
+      </c>
+      <c r="H48" s="9">
+        <v>949450</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
         <v>2111014</v>
       </c>
-      <c r="F48" s="9">
+      <c r="K48" s="9">
         <v>942290</v>
       </c>
-      <c r="G48" s="9">
+      <c r="L48" s="9">
         <v>893890</v>
       </c>
-      <c r="H48" s="9">
+      <c r="M48" s="9">
         <v>425020</v>
       </c>
-      <c r="I48" s="9">
+      <c r="N48" s="9">
         <v>816220</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>0</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="11">
+        <v>2500326</v>
+      </c>
+      <c r="J49" s="11">
         <v>31044997</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>35839828</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>6829536</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>-1475181</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>3541709</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9">
+        <v>140000</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
         <v>-4928</v>
       </c>
-      <c r="F50" s="9">
-        <v>0</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0</v>
-      </c>
-      <c r="I50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
+        <v>212844</v>
+      </c>
+      <c r="F51" s="11">
+        <v>219460</v>
+      </c>
+      <c r="G51" s="11">
+        <v>256260</v>
+      </c>
+      <c r="H51" s="11">
+        <v>208108</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+      <c r="J51" s="11">
         <v>430311</v>
       </c>
-      <c r="F51" s="11">
+      <c r="K51" s="11">
         <v>243288</v>
       </c>
-      <c r="G51" s="11">
+      <c r="L51" s="11">
         <v>180809</v>
       </c>
-      <c r="H51" s="11">
+      <c r="M51" s="11">
         <v>241325</v>
       </c>
-      <c r="I51" s="11">
+      <c r="N51" s="11">
         <v>319935</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
+        <v>31684230</v>
+      </c>
+      <c r="F52" s="9">
+        <v>37597058</v>
+      </c>
+      <c r="G52" s="9">
+        <v>40060518</v>
+      </c>
+      <c r="H52" s="9">
+        <v>19038237</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
         <v>68301083</v>
       </c>
-      <c r="F52" s="9">
+      <c r="K52" s="9">
         <v>28641879</v>
       </c>
-      <c r="G52" s="9">
+      <c r="L52" s="9">
         <v>20211753</v>
       </c>
-      <c r="H52" s="9">
+      <c r="M52" s="9">
         <v>42035874</v>
       </c>
-      <c r="I52" s="9">
+      <c r="N52" s="9">
         <v>39875194</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
+        <v>108000</v>
+      </c>
+      <c r="F53" s="11">
+        <v>259200</v>
+      </c>
+      <c r="G53" s="11">
+        <v>20000</v>
+      </c>
+      <c r="H53" s="11">
+        <v>248400</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0</v>
+      </c>
+      <c r="J53" s="11">
         <v>-6904</v>
       </c>
-      <c r="F53" s="11">
+      <c r="K53" s="11">
         <v>216000</v>
       </c>
-      <c r="G53" s="11">
+      <c r="L53" s="11">
         <v>64800</v>
       </c>
-      <c r="H53" s="11">
+      <c r="M53" s="11">
         <v>21190</v>
       </c>
-      <c r="I53" s="11">
+      <c r="N53" s="11">
         <v>310</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
+        <v>1087785</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1458306</v>
+      </c>
+      <c r="G54" s="9">
+        <v>1939082</v>
+      </c>
+      <c r="H54" s="9">
+        <v>1551514</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
         <v>3210163</v>
       </c>
-      <c r="F54" s="9">
+      <c r="K54" s="9">
         <v>-409001</v>
       </c>
-      <c r="G54" s="9">
+      <c r="L54" s="9">
         <v>675458</v>
       </c>
-      <c r="H54" s="9">
+      <c r="M54" s="9">
         <v>792099</v>
       </c>
-      <c r="I54" s="9">
+      <c r="N54" s="9">
         <v>2856240</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
+        <v>904230</v>
+      </c>
+      <c r="F55" s="11">
+        <v>795346</v>
+      </c>
+      <c r="G55" s="11">
+        <v>1499510</v>
+      </c>
+      <c r="H55" s="11">
+        <v>971708</v>
+      </c>
+      <c r="I55" s="11">
+        <v>0</v>
+      </c>
+      <c r="J55" s="11">
         <v>2171947</v>
       </c>
-      <c r="F55" s="11">
+      <c r="K55" s="11">
         <v>1414184</v>
       </c>
-      <c r="G55" s="11">
+      <c r="L55" s="11">
         <v>1179148</v>
       </c>
-      <c r="H55" s="11">
+      <c r="M55" s="11">
         <v>1119484</v>
       </c>
-      <c r="I55" s="11">
+      <c r="N55" s="11">
         <v>656162</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9">
+        <v>3678090</v>
+      </c>
+      <c r="F56" s="9">
+        <v>815630</v>
+      </c>
+      <c r="G56" s="9">
+        <v>1699920</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1357800</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
         <v>3538720</v>
       </c>
-      <c r="F56" s="9">
+      <c r="K56" s="9">
         <v>1286260</v>
       </c>
-      <c r="G56" s="9">
+      <c r="L56" s="9">
         <v>1725360</v>
       </c>
-      <c r="H56" s="9">
+      <c r="M56" s="9">
         <v>1914200</v>
       </c>
-      <c r="I56" s="9">
+      <c r="N56" s="9">
         <v>1451178</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
+        <v>40389779</v>
+      </c>
+      <c r="F57" s="13">
+        <v>43854090</v>
+      </c>
+      <c r="G57" s="13">
+        <v>49336254</v>
+      </c>
+      <c r="H57" s="13">
+        <v>26563880</v>
+      </c>
+      <c r="I57" s="13">
+        <v>2500326</v>
+      </c>
+      <c r="J57" s="13">
         <v>124005698</v>
       </c>
-      <c r="F57" s="13">
+      <c r="K57" s="13">
         <v>62482996</v>
       </c>
-      <c r="G57" s="13">
+      <c r="L57" s="13">
         <v>33880593</v>
       </c>
-      <c r="H57" s="13">
+      <c r="M57" s="13">
         <v>46922893</v>
       </c>
-      <c r="I57" s="13">
+      <c r="N57" s="13">
         <v>52593376</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1856,8 +2566,13 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1866,8 +2581,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1876,10 +2596,15 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -1898,8 +2623,23 @@
       <c r="I61" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1908,294 +2648,479 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>1927880</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1991360</v>
+      </c>
+      <c r="G63" s="9">
+        <v>2855887</v>
+      </c>
+      <c r="H63" s="9">
+        <v>2117840</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0</v>
+      </c>
+      <c r="J63" s="9">
         <v>4554370</v>
       </c>
-      <c r="F63" s="9">
+      <c r="K63" s="9">
         <v>2534685</v>
       </c>
-      <c r="G63" s="9">
+      <c r="L63" s="9">
         <v>2258890</v>
       </c>
-      <c r="H63" s="9">
+      <c r="M63" s="9">
         <v>1807712</v>
       </c>
-      <c r="I63" s="9">
+      <c r="N63" s="9">
         <v>2982259</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11">
+        <v>36130</v>
+      </c>
+      <c r="F64" s="11">
+        <v>39593</v>
+      </c>
+      <c r="G64" s="11">
+        <v>50683</v>
+      </c>
+      <c r="H64" s="11">
+        <v>46454</v>
+      </c>
+      <c r="I64" s="11">
+        <v>0</v>
+      </c>
+      <c r="J64" s="11">
         <v>8772732</v>
       </c>
-      <c r="F64" s="11">
+      <c r="K64" s="11">
         <v>-8413857</v>
       </c>
-      <c r="G64" s="11">
+      <c r="L64" s="11">
         <v>31500</v>
       </c>
-      <c r="H64" s="11">
+      <c r="M64" s="11">
         <v>70880</v>
       </c>
-      <c r="I64" s="11">
+      <c r="N64" s="11">
         <v>53552</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>752193</v>
+      </c>
+      <c r="F65" s="9">
+        <v>671253</v>
+      </c>
+      <c r="G65" s="9">
+        <v>874940</v>
+      </c>
+      <c r="H65" s="9">
+        <v>902409</v>
+      </c>
+      <c r="I65" s="9">
+        <v>0</v>
+      </c>
+      <c r="J65" s="9">
         <v>1777521</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>991190</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>764448</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>749392</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>713997</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
+      </c>
+      <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>158234</v>
+      </c>
+      <c r="J66" s="11">
         <v>17056696</v>
       </c>
-      <c r="F66" s="11">
+      <c r="K66" s="11">
         <v>28640844</v>
       </c>
-      <c r="G66" s="11">
+      <c r="L66" s="11">
         <v>15437008</v>
       </c>
-      <c r="H66" s="11">
+      <c r="M66" s="11">
         <v>-1276769</v>
       </c>
-      <c r="I66" s="11">
+      <c r="N66" s="11">
         <v>2793255</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>37550</v>
+      </c>
+      <c r="F67" s="9">
+        <v>34075</v>
+      </c>
+      <c r="G67" s="9">
+        <v>47900</v>
+      </c>
+      <c r="H67" s="9">
+        <v>26150</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0</v>
+      </c>
+      <c r="J67" s="9">
         <v>61900</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>41300</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>14750</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>28875</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>44725</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>202294</v>
+      </c>
+      <c r="F68" s="11">
+        <v>209201</v>
+      </c>
+      <c r="G68" s="11">
+        <v>247364</v>
+      </c>
+      <c r="H68" s="11">
+        <v>204236</v>
+      </c>
+      <c r="I68" s="11">
+        <v>0</v>
+      </c>
+      <c r="J68" s="11">
         <v>434273</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>240573</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>200550</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>229302</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>204966</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>31497391</v>
+      </c>
+      <c r="F69" s="9">
+        <v>41324390</v>
+      </c>
+      <c r="G69" s="9">
+        <v>34424755</v>
+      </c>
+      <c r="H69" s="9">
+        <v>29279093</v>
+      </c>
+      <c r="I69" s="9">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9">
         <v>70801323</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>24370288</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>22865246</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>45905839</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>32063336</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
+        <v>194600</v>
+      </c>
+      <c r="F70" s="11">
+        <v>190636</v>
+      </c>
+      <c r="G70" s="11">
+        <v>171952</v>
+      </c>
+      <c r="H70" s="11">
+        <v>132084</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0</v>
+      </c>
+      <c r="J70" s="11">
         <v>233027</v>
       </c>
-      <c r="F70" s="11">
+      <c r="K70" s="11">
         <v>105181</v>
       </c>
-      <c r="G70" s="11">
+      <c r="L70" s="11">
         <v>89343</v>
       </c>
-      <c r="H70" s="11">
+      <c r="M70" s="11">
         <v>105007</v>
       </c>
-      <c r="I70" s="11">
+      <c r="N70" s="11">
         <v>127900</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>1293074</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1286806</v>
+      </c>
+      <c r="G71" s="9">
+        <v>1859186</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1549657</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0</v>
+      </c>
+      <c r="J71" s="9">
         <v>3226809</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>-406075</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>882065</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>905430</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>2668708</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>887850</v>
+      </c>
+      <c r="F72" s="11">
+        <v>968666</v>
+      </c>
+      <c r="G72" s="11">
+        <v>1189338</v>
+      </c>
+      <c r="H72" s="11">
+        <v>983452</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0</v>
+      </c>
+      <c r="J72" s="11">
         <v>2526528</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>1208549</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>1022217</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>1226164</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>809889</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>1946625</v>
+      </c>
+      <c r="F73" s="9">
+        <v>2086000</v>
+      </c>
+      <c r="G73" s="9">
+        <v>2151760</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1782674</v>
+      </c>
+      <c r="I73" s="9">
+        <v>0</v>
+      </c>
+      <c r="J73" s="9">
         <v>3459090</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>1741590</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>1626370</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>1697230</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>1808950</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>38775587</v>
+      </c>
+      <c r="F74" s="13">
+        <v>48801980</v>
+      </c>
+      <c r="G74" s="13">
+        <v>43873765</v>
+      </c>
+      <c r="H74" s="13">
+        <v>37024049</v>
+      </c>
+      <c r="I74" s="13">
+        <v>158234</v>
+      </c>
+      <c r="J74" s="13">
         <v>112904269</v>
       </c>
-      <c r="F74" s="13">
+      <c r="K74" s="13">
         <v>51054268</v>
       </c>
-      <c r="G74" s="13">
+      <c r="L74" s="13">
         <v>45192387</v>
       </c>
-      <c r="H74" s="13">
+      <c r="M74" s="13">
         <v>51449062</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>44271537</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2204,8 +3129,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2214,8 +3144,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2224,10 +3159,15 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B78" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -2246,8 +3186,23 @@
       <c r="I78" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2256,294 +3211,479 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
+        <v>69922</v>
+      </c>
+      <c r="F80" s="9">
+        <v>52512</v>
+      </c>
+      <c r="G80" s="9">
+        <v>96895</v>
+      </c>
+      <c r="H80" s="9">
+        <v>63160</v>
+      </c>
+      <c r="I80" s="9">
+        <v>63160</v>
+      </c>
+      <c r="J80" s="9">
         <v>69595</v>
       </c>
-      <c r="F80" s="9">
+      <c r="K80" s="9">
         <v>228950</v>
       </c>
-      <c r="G80" s="9">
+      <c r="L80" s="9">
         <v>89899</v>
       </c>
-      <c r="H80" s="9">
+      <c r="M80" s="9">
         <v>74549</v>
       </c>
-      <c r="I80" s="9">
+      <c r="N80" s="9">
         <v>73535</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>1018570</v>
+      </c>
+      <c r="F81" s="11">
+        <v>1038977</v>
+      </c>
+      <c r="G81" s="11">
+        <v>1095378</v>
+      </c>
+      <c r="H81" s="11">
+        <v>1048778</v>
+      </c>
+      <c r="I81" s="11">
+        <v>1048778</v>
+      </c>
+      <c r="J81" s="11">
         <v>924536</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K81" s="11">
         <v>952621</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L81" s="11">
         <v>921121</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M81" s="11">
         <v>906761</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N81" s="11">
         <v>948392</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9">
+        <v>63406</v>
+      </c>
+      <c r="F82" s="9">
+        <v>67293</v>
+      </c>
+      <c r="G82" s="9">
+        <v>45963</v>
+      </c>
+      <c r="H82" s="9">
+        <v>93467</v>
+      </c>
+      <c r="I82" s="9">
+        <v>93467</v>
+      </c>
+      <c r="J82" s="9">
         <v>426960</v>
       </c>
-      <c r="F82" s="9">
+      <c r="K82" s="9">
         <v>378060</v>
       </c>
-      <c r="G82" s="9">
+      <c r="L82" s="9">
         <v>507502</v>
       </c>
-      <c r="H82" s="9">
+      <c r="M82" s="9">
         <v>183130</v>
       </c>
-      <c r="I82" s="9">
+      <c r="N82" s="9">
         <v>285353</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D83" s="11"/>
       <c r="E83" s="11">
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <v>0</v>
+      </c>
+      <c r="I83" s="11">
+        <v>2342092</v>
+      </c>
+      <c r="J83" s="11">
         <v>16330393</v>
       </c>
-      <c r="F83" s="11">
+      <c r="K83" s="11">
         <v>23529377</v>
       </c>
-      <c r="G83" s="11">
+      <c r="L83" s="11">
         <v>14921905</v>
       </c>
-      <c r="H83" s="11">
+      <c r="M83" s="11">
         <v>14723493</v>
       </c>
-      <c r="I83" s="11">
+      <c r="N83" s="11">
         <v>15471947</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9">
+        <v>309781</v>
+      </c>
+      <c r="F84" s="9">
+        <v>275706</v>
+      </c>
+      <c r="G84" s="9">
+        <v>227806</v>
+      </c>
+      <c r="H84" s="9">
+        <v>341578</v>
+      </c>
+      <c r="I84" s="9">
+        <v>341578</v>
+      </c>
+      <c r="J84" s="9">
         <v>274750</v>
       </c>
-      <c r="F84" s="9">
+      <c r="K84" s="9">
         <v>233450</v>
       </c>
-      <c r="G84" s="9">
+      <c r="L84" s="9">
         <v>218700</v>
       </c>
-      <c r="H84" s="9">
+      <c r="M84" s="9">
         <v>189825</v>
       </c>
-      <c r="I84" s="9">
+      <c r="N84" s="9">
         <v>145100</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
+        <v>240271</v>
+      </c>
+      <c r="F85" s="11">
+        <v>250530</v>
+      </c>
+      <c r="G85" s="11">
+        <v>259426</v>
+      </c>
+      <c r="H85" s="11">
+        <v>213375</v>
+      </c>
+      <c r="I85" s="11">
+        <v>213375</v>
+      </c>
+      <c r="J85" s="11">
         <v>209413</v>
       </c>
-      <c r="F85" s="11">
+      <c r="K85" s="11">
         <v>212128</v>
       </c>
-      <c r="G85" s="11">
+      <c r="L85" s="11">
         <v>192387</v>
       </c>
-      <c r="H85" s="11">
+      <c r="M85" s="11">
         <v>204410</v>
       </c>
-      <c r="I85" s="11">
+      <c r="N85" s="11">
         <v>319379</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9">
+        <v>35338508</v>
+      </c>
+      <c r="F86" s="9">
+        <v>31611176</v>
+      </c>
+      <c r="G86" s="9">
+        <v>37246939</v>
+      </c>
+      <c r="H86" s="9">
+        <v>23942873</v>
+      </c>
+      <c r="I86" s="9">
+        <v>23942873</v>
+      </c>
+      <c r="J86" s="9">
         <v>21442633</v>
       </c>
-      <c r="F86" s="9">
+      <c r="K86" s="9">
         <v>25714224</v>
       </c>
-      <c r="G86" s="9">
+      <c r="L86" s="9">
         <v>23060731</v>
       </c>
-      <c r="H86" s="9">
+      <c r="M86" s="9">
         <v>19190766</v>
       </c>
-      <c r="I86" s="9">
+      <c r="N86" s="9">
         <v>27002624</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
+        <v>530680</v>
+      </c>
+      <c r="F87" s="11">
+        <v>599244</v>
+      </c>
+      <c r="G87" s="11">
+        <v>447292</v>
+      </c>
+      <c r="H87" s="11">
+        <v>529009</v>
+      </c>
+      <c r="I87" s="11">
+        <v>529009</v>
+      </c>
+      <c r="J87" s="11">
         <v>289078</v>
       </c>
-      <c r="F87" s="11">
+      <c r="K87" s="11">
         <v>399897</v>
       </c>
-      <c r="G87" s="11">
+      <c r="L87" s="11">
         <v>375354</v>
       </c>
-      <c r="H87" s="11">
+      <c r="M87" s="11">
         <v>291537</v>
       </c>
-      <c r="I87" s="11">
+      <c r="N87" s="11">
         <v>163947</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9">
+        <v>478581</v>
+      </c>
+      <c r="F88" s="9">
+        <v>650081</v>
+      </c>
+      <c r="G88" s="9">
+        <v>729977</v>
+      </c>
+      <c r="H88" s="9">
+        <v>676712</v>
+      </c>
+      <c r="I88" s="9">
+        <v>676712</v>
+      </c>
+      <c r="J88" s="9">
         <v>660066</v>
       </c>
-      <c r="F88" s="9">
+      <c r="K88" s="9">
         <v>657140</v>
       </c>
-      <c r="G88" s="9">
+      <c r="L88" s="9">
         <v>450533</v>
       </c>
-      <c r="H88" s="9">
+      <c r="M88" s="9">
         <v>337202</v>
       </c>
-      <c r="I88" s="9">
+      <c r="N88" s="9">
         <v>524734</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
+        <v>616583</v>
+      </c>
+      <c r="F89" s="11">
+        <v>443263</v>
+      </c>
+      <c r="G89" s="11">
+        <v>753435</v>
+      </c>
+      <c r="H89" s="11">
+        <v>586382</v>
+      </c>
+      <c r="I89" s="11">
+        <v>586382</v>
+      </c>
+      <c r="J89" s="11">
         <v>231801</v>
       </c>
-      <c r="F89" s="11">
+      <c r="K89" s="11">
         <v>437436</v>
       </c>
-      <c r="G89" s="11">
+      <c r="L89" s="11">
         <v>594367</v>
       </c>
-      <c r="H89" s="11">
+      <c r="M89" s="11">
         <v>487687</v>
       </c>
-      <c r="I89" s="11">
+      <c r="N89" s="11">
         <v>333960</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="9">
+        <v>3001567</v>
+      </c>
+      <c r="F90" s="9">
+        <v>1731170</v>
+      </c>
+      <c r="G90" s="9">
+        <v>1279330</v>
+      </c>
+      <c r="H90" s="9">
+        <v>807370</v>
+      </c>
+      <c r="I90" s="9">
+        <v>807370</v>
+      </c>
+      <c r="J90" s="9">
         <v>887000</v>
       </c>
-      <c r="F90" s="9">
+      <c r="K90" s="9">
         <v>431670</v>
       </c>
-      <c r="G90" s="9">
+      <c r="L90" s="9">
         <v>530660</v>
       </c>
-      <c r="H90" s="9">
+      <c r="M90" s="9">
         <v>747630</v>
       </c>
-      <c r="I90" s="9">
+      <c r="N90" s="9">
         <v>389858</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
       <c r="E91" s="13">
+        <v>41667869</v>
+      </c>
+      <c r="F91" s="13">
+        <v>36719952</v>
+      </c>
+      <c r="G91" s="13">
+        <v>42182441</v>
+      </c>
+      <c r="H91" s="13">
+        <v>28302704</v>
+      </c>
+      <c r="I91" s="13">
+        <v>30644796</v>
+      </c>
+      <c r="J91" s="13">
         <v>41746225</v>
       </c>
-      <c r="F91" s="13">
+      <c r="K91" s="13">
         <v>53174953</v>
       </c>
-      <c r="G91" s="13">
+      <c r="L91" s="13">
         <v>41863159</v>
       </c>
-      <c r="H91" s="13">
+      <c r="M91" s="13">
         <v>37336990</v>
       </c>
-      <c r="I91" s="13">
+      <c r="N91" s="13">
         <v>45658829</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2552,8 +3692,13 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2562,8 +3707,13 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2572,10 +3722,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2594,8 +3749,23 @@
       <c r="I95" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2604,294 +3774,479 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9">
+        <v>1804</v>
+      </c>
+      <c r="F97" s="9">
+        <v>2399</v>
+      </c>
+      <c r="G97" s="9">
+        <v>1849</v>
+      </c>
+      <c r="H97" s="9">
+        <v>4591</v>
+      </c>
+      <c r="I97" s="9">
         <v>2885</v>
       </c>
-      <c r="F97" s="9">
+      <c r="J97" s="9">
+        <v>2885</v>
+      </c>
+      <c r="K97" s="9">
         <v>5098</v>
       </c>
-      <c r="G97" s="9">
+      <c r="L97" s="9">
         <v>22076</v>
       </c>
-      <c r="H97" s="9">
+      <c r="M97" s="9">
         <v>14404</v>
       </c>
-      <c r="I97" s="9">
+      <c r="N97" s="9">
         <v>12049</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>3316</v>
+      </c>
+      <c r="F98" s="11">
+        <v>3188</v>
+      </c>
+      <c r="G98" s="11">
+        <v>3343</v>
+      </c>
+      <c r="H98" s="11">
+        <v>4409</v>
+      </c>
+      <c r="I98" s="11">
         <v>4342</v>
       </c>
-      <c r="F98" s="11">
+      <c r="J98" s="11">
+        <v>4342</v>
+      </c>
+      <c r="K98" s="11">
         <v>5036</v>
       </c>
-      <c r="G98" s="11">
+      <c r="L98" s="11">
         <v>5220</v>
       </c>
-      <c r="H98" s="11">
+      <c r="M98" s="11">
         <v>4950</v>
       </c>
-      <c r="I98" s="11">
+      <c r="N98" s="11">
         <v>4846</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>1392</v>
+      </c>
+      <c r="F99" s="9">
+        <v>3080</v>
+      </c>
+      <c r="G99" s="9">
+        <v>3997</v>
+      </c>
+      <c r="H99" s="9">
+        <v>4107</v>
+      </c>
+      <c r="I99" s="9">
         <v>8210</v>
       </c>
-      <c r="F99" s="9">
+      <c r="J99" s="9">
+        <v>8210</v>
+      </c>
+      <c r="K99" s="9">
         <v>41148</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>44923</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>79631</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>33960</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>404996</v>
+      </c>
+      <c r="F100" s="11">
+        <v>570506</v>
+      </c>
+      <c r="G100" s="11">
+        <v>824319</v>
+      </c>
+      <c r="H100" s="11">
+        <v>973936</v>
+      </c>
+      <c r="I100" s="11">
+        <v>806137</v>
+      </c>
+      <c r="J100" s="11">
         <v>1045832</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>875039</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>985931</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>911764</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>904421</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>76811</v>
+      </c>
+      <c r="F101" s="9">
+        <v>67610</v>
+      </c>
+      <c r="G101" s="9">
+        <v>61274</v>
+      </c>
+      <c r="H101" s="9">
+        <v>47419</v>
+      </c>
+      <c r="I101" s="9">
         <v>82920</v>
       </c>
-      <c r="F101" s="9">
+      <c r="J101" s="9">
+        <v>82920</v>
+      </c>
+      <c r="K101" s="9">
         <v>113827</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>56090</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>52239</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>44138</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>67599</v>
+      </c>
+      <c r="F102" s="11">
+        <v>80638</v>
+      </c>
+      <c r="G102" s="11">
+        <v>105525</v>
+      </c>
+      <c r="H102" s="11">
+        <v>123665</v>
+      </c>
+      <c r="I102" s="11">
         <v>142041</v>
       </c>
-      <c r="F102" s="11">
+      <c r="J102" s="11">
+        <v>142041</v>
+      </c>
+      <c r="K102" s="11">
         <v>178306</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>165006</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>149857</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>166632</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>46460</v>
+      </c>
+      <c r="F103" s="9">
+        <v>45406</v>
+      </c>
+      <c r="G103" s="9">
+        <v>52707</v>
+      </c>
+      <c r="H103" s="9">
+        <v>67301</v>
+      </c>
+      <c r="I103" s="9">
         <v>60777</v>
       </c>
-      <c r="F103" s="9">
+      <c r="J103" s="9">
+        <v>60777</v>
+      </c>
+      <c r="K103" s="9">
         <v>62033</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>95400</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>78983</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>78763</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>209459</v>
+      </c>
+      <c r="F104" s="11">
+        <v>230317</v>
+      </c>
+      <c r="G104" s="11">
+        <v>167171</v>
+      </c>
+      <c r="H104" s="11">
+        <v>261844</v>
+      </c>
+      <c r="I104" s="11">
         <v>329282</v>
       </c>
-      <c r="F104" s="11">
+      <c r="J104" s="11">
+        <v>329282</v>
+      </c>
+      <c r="K104" s="11">
         <v>192276</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>276105</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>278814</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>222524</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>23306</v>
+      </c>
+      <c r="F105" s="9">
+        <v>17034</v>
+      </c>
+      <c r="G105" s="9">
+        <v>36890</v>
+      </c>
+      <c r="H105" s="9">
+        <v>41802</v>
+      </c>
+      <c r="I105" s="9">
         <v>48960</v>
       </c>
-      <c r="F105" s="9">
+      <c r="J105" s="9">
+        <v>48960</v>
+      </c>
+      <c r="K105" s="9">
         <v>60075</v>
       </c>
-      <c r="G105" s="9">
+      <c r="L105" s="9">
         <v>74129</v>
       </c>
-      <c r="H105" s="9">
+      <c r="M105" s="9">
         <v>49063</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>31103</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
+        <v>89794</v>
+      </c>
+      <c r="F106" s="11">
+        <v>109209</v>
+      </c>
+      <c r="G106" s="11">
+        <v>85453</v>
+      </c>
+      <c r="H106" s="11">
+        <v>89729</v>
+      </c>
+      <c r="I106" s="11">
         <v>148871</v>
       </c>
-      <c r="F106" s="11">
+      <c r="J106" s="11">
+        <v>148871</v>
+      </c>
+      <c r="K106" s="11">
         <v>58874</v>
       </c>
-      <c r="G106" s="11">
+      <c r="L106" s="11">
         <v>73260</v>
       </c>
-      <c r="H106" s="11">
+      <c r="M106" s="11">
         <v>385416</v>
       </c>
-      <c r="I106" s="11">
+      <c r="N106" s="11">
         <v>399110</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
+        <v>81508</v>
+      </c>
+      <c r="F107" s="9">
+        <v>195097</v>
+      </c>
+      <c r="G107" s="9">
+        <v>119783</v>
+      </c>
+      <c r="H107" s="9">
+        <v>137823</v>
+      </c>
+      <c r="I107" s="9">
         <v>97506</v>
       </c>
-      <c r="F107" s="9">
+      <c r="J107" s="9">
+        <v>97506</v>
+      </c>
+      <c r="K107" s="9">
         <v>114726</v>
       </c>
-      <c r="G107" s="9">
+      <c r="L107" s="9">
         <v>57051</v>
       </c>
-      <c r="H107" s="9">
+      <c r="M107" s="9">
         <v>97037</v>
       </c>
-      <c r="I107" s="9">
+      <c r="N107" s="9">
         <v>139801</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
       <c r="E108" s="13">
+        <v>1006445</v>
+      </c>
+      <c r="F108" s="13">
+        <v>1324484</v>
+      </c>
+      <c r="G108" s="13">
+        <v>1462311</v>
+      </c>
+      <c r="H108" s="13">
+        <v>1756626</v>
+      </c>
+      <c r="I108" s="13">
+        <v>1731931</v>
+      </c>
+      <c r="J108" s="13">
         <v>1971626</v>
       </c>
-      <c r="F108" s="13">
+      <c r="K108" s="13">
         <v>1706438</v>
       </c>
-      <c r="G108" s="13">
+      <c r="L108" s="13">
         <v>1855191</v>
       </c>
-      <c r="H108" s="13">
+      <c r="M108" s="13">
         <v>2102158</v>
       </c>
-      <c r="I108" s="13">
+      <c r="N108" s="13">
         <v>2037347</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2900,8 +4255,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2910,8 +4270,13 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2920,10 +4285,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B112" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2942,8 +4312,23 @@
       <c r="I112" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2952,294 +4337,479 @@
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9">
+        <v>68593</v>
+      </c>
+      <c r="F114" s="9">
+        <v>73062</v>
+      </c>
+      <c r="G114" s="9">
+        <v>109846</v>
+      </c>
+      <c r="H114" s="9">
+        <v>110555</v>
+      </c>
+      <c r="I114" s="9">
+        <v>0</v>
+      </c>
+      <c r="J114" s="9">
         <v>279329</v>
       </c>
-      <c r="F114" s="9">
+      <c r="K114" s="9">
         <v>195995</v>
       </c>
-      <c r="G114" s="9">
+      <c r="L114" s="9">
         <v>296498</v>
       </c>
-      <c r="H114" s="9">
+      <c r="M114" s="9">
         <v>368207</v>
       </c>
-      <c r="I114" s="9">
+      <c r="N114" s="9">
         <v>381008</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
+        <v>76</v>
+      </c>
+      <c r="F115" s="11">
+        <v>393</v>
+      </c>
+      <c r="G115" s="11">
+        <v>1460</v>
+      </c>
+      <c r="H115" s="11">
+        <v>383</v>
+      </c>
+      <c r="I115" s="11">
+        <v>0</v>
+      </c>
+      <c r="J115" s="11">
         <v>46303</v>
       </c>
-      <c r="F115" s="11">
+      <c r="K115" s="11">
         <v>-42690</v>
       </c>
-      <c r="G115" s="11">
-        <v>0</v>
-      </c>
-      <c r="H115" s="11">
+      <c r="L115" s="11">
+        <v>0</v>
+      </c>
+      <c r="M115" s="11">
         <v>539</v>
       </c>
-      <c r="I115" s="11">
+      <c r="N115" s="11">
         <v>935</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9">
+        <v>29400</v>
+      </c>
+      <c r="F116" s="9">
+        <v>39167</v>
+      </c>
+      <c r="G116" s="9">
+        <v>61197</v>
+      </c>
+      <c r="H116" s="9">
+        <v>83899</v>
+      </c>
+      <c r="I116" s="9">
+        <v>0</v>
+      </c>
+      <c r="J116" s="9">
         <v>186919</v>
       </c>
-      <c r="F116" s="9">
+      <c r="K116" s="9">
         <v>105955</v>
       </c>
-      <c r="G116" s="9">
+      <c r="L116" s="9">
         <v>131168</v>
       </c>
-      <c r="H116" s="9">
+      <c r="M116" s="9">
         <v>78825</v>
       </c>
-      <c r="I116" s="9">
+      <c r="N116" s="9">
         <v>147817</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>311478</v>
+      </c>
+      <c r="F117" s="11">
+        <v>514330</v>
+      </c>
+      <c r="G117" s="11">
+        <v>255674</v>
+      </c>
+      <c r="H117" s="11">
+        <v>65566</v>
+      </c>
+      <c r="I117" s="11">
+        <v>1434760</v>
+      </c>
+      <c r="J117" s="11">
         <v>-787442</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>714664</v>
       </c>
-      <c r="G117" s="11">
+      <c r="L117" s="11">
         <v>256180</v>
       </c>
-      <c r="H117" s="11">
+      <c r="M117" s="11">
         <v>532131</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>287039</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9">
+        <v>-1</v>
+      </c>
+      <c r="F118" s="9">
+        <v>0</v>
+      </c>
+      <c r="G118" s="9">
+        <v>0</v>
+      </c>
+      <c r="H118" s="9">
+        <v>41821</v>
+      </c>
+      <c r="I118" s="9">
+        <v>0</v>
+      </c>
+      <c r="J118" s="9">
         <v>46229</v>
       </c>
-      <c r="F118" s="9">
+      <c r="K118" s="9">
         <v>-47518</v>
       </c>
-      <c r="G118" s="9">
-        <v>0</v>
-      </c>
-      <c r="H118" s="9">
-        <v>0</v>
-      </c>
-      <c r="I118" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L118" s="9">
+        <v>0</v>
+      </c>
+      <c r="M118" s="9">
+        <v>0</v>
+      </c>
+      <c r="N118" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
+        <v>100619</v>
+      </c>
+      <c r="F119" s="11">
+        <v>148208</v>
+      </c>
+      <c r="G119" s="11">
+        <v>189939</v>
+      </c>
+      <c r="H119" s="11">
+        <v>173857</v>
+      </c>
+      <c r="I119" s="11">
+        <v>0</v>
+      </c>
+      <c r="J119" s="11">
         <v>380887</v>
       </c>
-      <c r="F119" s="11">
+      <c r="K119" s="11">
         <v>205972</v>
       </c>
-      <c r="G119" s="11">
+      <c r="L119" s="11">
         <v>170088</v>
       </c>
-      <c r="H119" s="11">
+      <c r="M119" s="11">
         <v>235782</v>
       </c>
-      <c r="I119" s="11">
+      <c r="N119" s="11">
         <v>237268</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9">
+        <v>56669</v>
+      </c>
+      <c r="F120" s="9">
+        <v>76932</v>
+      </c>
+      <c r="G120" s="9">
+        <v>91467</v>
+      </c>
+      <c r="H120" s="9">
+        <v>52045</v>
+      </c>
+      <c r="I120" s="9">
+        <v>0</v>
+      </c>
+      <c r="J120" s="9">
         <v>164077</v>
       </c>
-      <c r="F120" s="9">
+      <c r="K120" s="9">
         <v>116163</v>
       </c>
-      <c r="G120" s="9">
+      <c r="L120" s="9">
         <v>61312</v>
       </c>
-      <c r="H120" s="9">
+      <c r="M120" s="9">
         <v>91176</v>
       </c>
-      <c r="I120" s="9">
+      <c r="N120" s="9">
         <v>119065</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>85517</v>
+      </c>
+      <c r="F121" s="11">
+        <v>0</v>
+      </c>
+      <c r="G121" s="11">
+        <v>210045</v>
+      </c>
+      <c r="H121" s="11">
+        <v>159815</v>
+      </c>
+      <c r="I121" s="11">
+        <v>0</v>
+      </c>
+      <c r="J121" s="11">
         <v>12252</v>
       </c>
-      <c r="F121" s="11">
+      <c r="K121" s="11">
         <v>148094</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>66600</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>18820</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>399</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>51254</v>
+      </c>
+      <c r="F122" s="9">
+        <v>104761</v>
+      </c>
+      <c r="G122" s="9">
+        <v>144287</v>
+      </c>
+      <c r="H122" s="9">
+        <v>141054</v>
+      </c>
+      <c r="I122" s="9">
+        <v>0</v>
+      </c>
+      <c r="J122" s="9">
         <v>306915</v>
       </c>
-      <c r="F122" s="9">
+      <c r="K122" s="9">
         <v>36474</v>
       </c>
-      <c r="G122" s="9">
+      <c r="L122" s="9">
         <v>87790</v>
       </c>
-      <c r="H122" s="9">
+      <c r="M122" s="9">
         <v>106110</v>
       </c>
-      <c r="I122" s="9">
+      <c r="N122" s="9">
         <v>331748</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
+        <v>106976</v>
+      </c>
+      <c r="F123" s="11">
+        <v>113457</v>
+      </c>
+      <c r="G123" s="11">
+        <v>204850</v>
+      </c>
+      <c r="H123" s="11">
+        <v>176322</v>
+      </c>
+      <c r="I123" s="11">
+        <v>0</v>
+      </c>
+      <c r="J123" s="11">
         <v>309601</v>
       </c>
-      <c r="F123" s="11">
+      <c r="K123" s="11">
         <v>311029</v>
       </c>
-      <c r="G123" s="11">
+      <c r="L123" s="11">
         <v>553692</v>
       </c>
-      <c r="H123" s="11">
+      <c r="M123" s="11">
         <v>642554</v>
       </c>
-      <c r="I123" s="11">
+      <c r="N123" s="11">
         <v>419681</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>240112</v>
+      </c>
+      <c r="F124" s="9">
+        <v>60952</v>
+      </c>
+      <c r="G124" s="9">
+        <v>171828</v>
+      </c>
+      <c r="H124" s="9">
+        <v>164577</v>
+      </c>
+      <c r="I124" s="9">
+        <v>0</v>
+      </c>
+      <c r="J124" s="9">
         <v>446343</v>
       </c>
-      <c r="F124" s="9">
+      <c r="K124" s="9">
         <v>173443</v>
       </c>
-      <c r="G124" s="9">
+      <c r="L124" s="9">
         <v>300575</v>
       </c>
-      <c r="H124" s="9">
+      <c r="M124" s="9">
         <v>357231</v>
       </c>
-      <c r="I124" s="9">
+      <c r="N124" s="9">
         <v>276034</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
+        <v>1050693</v>
+      </c>
+      <c r="F125" s="13">
+        <v>1131262</v>
+      </c>
+      <c r="G125" s="13">
+        <v>1440593</v>
+      </c>
+      <c r="H125" s="13">
+        <v>1169894</v>
+      </c>
+      <c r="I125" s="13">
+        <v>1434760</v>
+      </c>
+      <c r="J125" s="13">
         <v>1391413</v>
       </c>
-      <c r="F125" s="13">
+      <c r="K125" s="13">
         <v>1917581</v>
       </c>
-      <c r="G125" s="13">
+      <c r="L125" s="13">
         <v>1923903</v>
       </c>
-      <c r="H125" s="13">
+      <c r="M125" s="13">
         <v>2431375</v>
       </c>
-      <c r="I125" s="13">
+      <c r="N125" s="13">
         <v>2200994</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3248,8 +4818,13 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3258,8 +4833,13 @@
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3268,10 +4848,15 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B129" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3290,8 +4875,23 @@
       <c r="I129" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3300,294 +4900,479 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
+        <v>67998</v>
+      </c>
+      <c r="F131" s="9">
+        <v>73612</v>
+      </c>
+      <c r="G131" s="9">
+        <v>107455</v>
+      </c>
+      <c r="H131" s="9">
+        <v>112261</v>
+      </c>
+      <c r="I131" s="9">
+        <v>0</v>
+      </c>
+      <c r="J131" s="9">
         <v>277116</v>
       </c>
-      <c r="F131" s="9">
+      <c r="K131" s="9">
         <v>179017</v>
       </c>
-      <c r="G131" s="9">
+      <c r="L131" s="9">
         <v>304170</v>
       </c>
-      <c r="H131" s="9">
+      <c r="M131" s="9">
         <v>370562</v>
       </c>
-      <c r="I131" s="9">
+      <c r="N131" s="9">
         <v>381439</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
+        <v>204</v>
+      </c>
+      <c r="F132" s="11">
+        <v>238</v>
+      </c>
+      <c r="G132" s="11">
+        <v>457</v>
+      </c>
+      <c r="H132" s="11">
+        <v>450</v>
+      </c>
+      <c r="I132" s="11">
+        <v>0</v>
+      </c>
+      <c r="J132" s="11">
         <v>45609</v>
       </c>
-      <c r="F132" s="11">
+      <c r="K132" s="11">
         <v>-42874</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>270</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>643</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>677</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>27712</v>
+      </c>
+      <c r="F133" s="9">
+        <v>38250</v>
+      </c>
+      <c r="G133" s="9">
+        <v>61203</v>
+      </c>
+      <c r="H133" s="9">
+        <v>79796</v>
+      </c>
+      <c r="I133" s="9">
+        <v>0</v>
+      </c>
+      <c r="J133" s="9">
         <v>153981</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>102180</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>96460</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>124496</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>131449</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>145969</v>
+      </c>
+      <c r="F134" s="11">
+        <v>260516</v>
+      </c>
+      <c r="G134" s="11">
+        <v>224162</v>
+      </c>
+      <c r="H134" s="11">
+        <v>233365</v>
+      </c>
+      <c r="I134" s="11">
+        <v>1195065</v>
+      </c>
+      <c r="J134" s="11">
         <v>-616648</v>
       </c>
-      <c r="F134" s="11">
+      <c r="K134" s="11">
         <v>603771</v>
       </c>
-      <c r="G134" s="11">
+      <c r="L134" s="11">
         <v>330347</v>
       </c>
-      <c r="H134" s="11">
+      <c r="M134" s="11">
         <v>539474</v>
       </c>
-      <c r="I134" s="11">
+      <c r="N134" s="11">
         <v>348725</v>
       </c>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>9200</v>
+      </c>
+      <c r="F135" s="9">
+        <v>6336</v>
+      </c>
+      <c r="G135" s="9">
+        <v>13866</v>
+      </c>
+      <c r="H135" s="9">
+        <v>6320</v>
+      </c>
+      <c r="I135" s="9">
+        <v>0</v>
+      </c>
+      <c r="J135" s="9">
         <v>15322</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>10219</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>3851</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>8101</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>12225</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>87579</v>
+      </c>
+      <c r="F136" s="11">
+        <v>123321</v>
+      </c>
+      <c r="G136" s="11">
+        <v>169763</v>
+      </c>
+      <c r="H136" s="11">
+        <v>155481</v>
+      </c>
+      <c r="I136" s="11">
+        <v>0</v>
+      </c>
+      <c r="J136" s="11">
         <v>344622</v>
       </c>
-      <c r="F136" s="11">
+      <c r="K136" s="11">
         <v>219272</v>
       </c>
-      <c r="G136" s="11">
+      <c r="L136" s="11">
         <v>185237</v>
       </c>
-      <c r="H136" s="11">
+      <c r="M136" s="11">
         <v>219007</v>
       </c>
-      <c r="I136" s="11">
+      <c r="N136" s="11">
         <v>205856</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>57723</v>
+      </c>
+      <c r="F137" s="9">
+        <v>69631</v>
+      </c>
+      <c r="G137" s="9">
+        <v>80305</v>
+      </c>
+      <c r="H137" s="9">
+        <v>58569</v>
+      </c>
+      <c r="I137" s="9">
+        <v>0</v>
+      </c>
+      <c r="J137" s="9">
         <v>162821</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>82796</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>77729</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>91396</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>100476</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>64659</v>
+      </c>
+      <c r="F138" s="11">
+        <v>63146</v>
+      </c>
+      <c r="G138" s="11">
+        <v>96156</v>
+      </c>
+      <c r="H138" s="11">
+        <v>92377</v>
+      </c>
+      <c r="I138" s="11">
+        <v>0</v>
+      </c>
+      <c r="J138" s="11">
         <v>149258</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>64265</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>63891</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>75110</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>92608</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>57526</v>
+      </c>
+      <c r="F139" s="9">
+        <v>84905</v>
+      </c>
+      <c r="G139" s="9">
+        <v>136709</v>
+      </c>
+      <c r="H139" s="9">
+        <v>133896</v>
+      </c>
+      <c r="I139" s="9">
+        <v>0</v>
+      </c>
+      <c r="J139" s="9">
         <v>295800</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>22420</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>112856</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>124070</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>313918</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
+        <v>87561</v>
+      </c>
+      <c r="F140" s="11">
+        <v>137213</v>
+      </c>
+      <c r="G140" s="11">
+        <v>182189</v>
+      </c>
+      <c r="H140" s="11">
+        <v>117180</v>
+      </c>
+      <c r="I140" s="11">
+        <v>0</v>
+      </c>
+      <c r="J140" s="11">
         <v>399598</v>
       </c>
-      <c r="F140" s="11">
+      <c r="K140" s="11">
         <v>296643</v>
       </c>
-      <c r="G140" s="11">
+      <c r="L140" s="11">
         <v>241536</v>
       </c>
-      <c r="H140" s="11">
+      <c r="M140" s="11">
         <v>628860</v>
       </c>
-      <c r="I140" s="11">
+      <c r="N140" s="11">
         <v>564705</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>126523</v>
+      </c>
+      <c r="F141" s="9">
+        <v>136266</v>
+      </c>
+      <c r="G141" s="9">
+        <v>152928</v>
+      </c>
+      <c r="H141" s="9">
+        <v>204894</v>
+      </c>
+      <c r="I141" s="9">
+        <v>0</v>
+      </c>
+      <c r="J141" s="9">
         <v>429123</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>231118</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>260589</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>314467</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>341060</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="13"/>
       <c r="E142" s="13">
+        <v>732654</v>
+      </c>
+      <c r="F142" s="13">
+        <v>993434</v>
+      </c>
+      <c r="G142" s="13">
+        <v>1225193</v>
+      </c>
+      <c r="H142" s="13">
+        <v>1194589</v>
+      </c>
+      <c r="I142" s="13">
+        <v>1195065</v>
+      </c>
+      <c r="J142" s="13">
         <v>1656602</v>
       </c>
-      <c r="F142" s="13">
+      <c r="K142" s="13">
         <v>1768827</v>
       </c>
-      <c r="G142" s="13">
+      <c r="L142" s="13">
         <v>1676936</v>
       </c>
-      <c r="H142" s="13">
+      <c r="M142" s="13">
         <v>2496186</v>
       </c>
-      <c r="I142" s="13">
+      <c r="N142" s="13">
         <v>2493138</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3596,8 +5381,13 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3606,8 +5396,13 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3616,10 +5411,15 @@
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-    </row>
-    <row r="146" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+    </row>
+    <row r="146" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3638,8 +5438,23 @@
       <c r="I146" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3648,294 +5463,479 @@
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9">
+        <v>2399</v>
+      </c>
+      <c r="F148" s="9">
+        <v>1849</v>
+      </c>
+      <c r="G148" s="9">
+        <v>4240</v>
+      </c>
+      <c r="H148" s="9">
+        <v>2885</v>
+      </c>
+      <c r="I148" s="9">
+        <v>2885</v>
+      </c>
+      <c r="J148" s="9">
         <v>5098</v>
       </c>
-      <c r="F148" s="9">
+      <c r="K148" s="9">
         <v>22076</v>
       </c>
-      <c r="G148" s="9">
+      <c r="L148" s="9">
         <v>14404</v>
       </c>
-      <c r="H148" s="9">
+      <c r="M148" s="9">
         <v>12049</v>
       </c>
-      <c r="I148" s="9">
+      <c r="N148" s="9">
         <v>11618</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C149" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="11">
+        <v>3188</v>
+      </c>
+      <c r="F149" s="11">
+        <v>3343</v>
+      </c>
+      <c r="G149" s="11">
+        <v>4346</v>
+      </c>
+      <c r="H149" s="11">
+        <v>4342</v>
+      </c>
+      <c r="I149" s="11">
+        <v>4342</v>
+      </c>
+      <c r="J149" s="11">
         <v>5036</v>
       </c>
-      <c r="F149" s="11">
+      <c r="K149" s="11">
         <v>5220</v>
       </c>
-      <c r="G149" s="11">
+      <c r="L149" s="11">
         <v>4950</v>
       </c>
-      <c r="H149" s="11">
+      <c r="M149" s="11">
         <v>4846</v>
       </c>
-      <c r="I149" s="11">
+      <c r="N149" s="11">
         <v>5104</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9">
+        <v>3080</v>
+      </c>
+      <c r="F150" s="9">
+        <v>3997</v>
+      </c>
+      <c r="G150" s="9">
+        <v>3991</v>
+      </c>
+      <c r="H150" s="9">
+        <v>8210</v>
+      </c>
+      <c r="I150" s="9">
+        <v>8210</v>
+      </c>
+      <c r="J150" s="9">
         <v>41148</v>
       </c>
-      <c r="F150" s="9">
+      <c r="K150" s="9">
         <v>44923</v>
       </c>
-      <c r="G150" s="9">
+      <c r="L150" s="9">
         <v>79631</v>
       </c>
-      <c r="H150" s="9">
+      <c r="M150" s="9">
         <v>33960</v>
       </c>
-      <c r="I150" s="9">
+      <c r="N150" s="9">
         <v>50328</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C151" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D151" s="11"/>
       <c r="E151" s="11">
+        <v>570506</v>
+      </c>
+      <c r="F151" s="11">
+        <v>824319</v>
+      </c>
+      <c r="G151" s="11">
+        <v>855831</v>
+      </c>
+      <c r="H151" s="11">
+        <v>806137</v>
+      </c>
+      <c r="I151" s="11">
+        <v>1045832</v>
+      </c>
+      <c r="J151" s="11">
         <v>875039</v>
       </c>
-      <c r="F151" s="11">
+      <c r="K151" s="11">
         <v>985931</v>
       </c>
-      <c r="G151" s="11">
+      <c r="L151" s="11">
         <v>911764</v>
       </c>
-      <c r="H151" s="11">
+      <c r="M151" s="11">
         <v>904421</v>
       </c>
-      <c r="I151" s="11">
+      <c r="N151" s="11">
         <v>842735</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D152" s="9"/>
       <c r="E152" s="9">
+        <v>67610</v>
+      </c>
+      <c r="F152" s="9">
+        <v>61274</v>
+      </c>
+      <c r="G152" s="9">
+        <v>47408</v>
+      </c>
+      <c r="H152" s="9">
+        <v>82920</v>
+      </c>
+      <c r="I152" s="9">
+        <v>82920</v>
+      </c>
+      <c r="J152" s="9">
         <v>113827</v>
       </c>
-      <c r="F152" s="9">
+      <c r="K152" s="9">
         <v>56090</v>
       </c>
-      <c r="G152" s="9">
+      <c r="L152" s="9">
         <v>52239</v>
       </c>
-      <c r="H152" s="9">
+      <c r="M152" s="9">
         <v>44138</v>
       </c>
-      <c r="I152" s="9">
+      <c r="N152" s="9">
         <v>31913</v>
       </c>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C153" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D153" s="11"/>
       <c r="E153" s="11">
+        <v>80638</v>
+      </c>
+      <c r="F153" s="11">
+        <v>105525</v>
+      </c>
+      <c r="G153" s="11">
+        <v>125701</v>
+      </c>
+      <c r="H153" s="11">
+        <v>142041</v>
+      </c>
+      <c r="I153" s="11">
+        <v>142041</v>
+      </c>
+      <c r="J153" s="11">
         <v>178306</v>
       </c>
-      <c r="F153" s="11">
+      <c r="K153" s="11">
         <v>165006</v>
       </c>
-      <c r="G153" s="11">
+      <c r="L153" s="11">
         <v>149857</v>
       </c>
-      <c r="H153" s="11">
+      <c r="M153" s="11">
         <v>166632</v>
       </c>
-      <c r="I153" s="11">
+      <c r="N153" s="11">
         <v>198044</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D154" s="9"/>
       <c r="E154" s="9">
+        <v>45406</v>
+      </c>
+      <c r="F154" s="9">
+        <v>52707</v>
+      </c>
+      <c r="G154" s="9">
+        <v>63869</v>
+      </c>
+      <c r="H154" s="9">
+        <v>60777</v>
+      </c>
+      <c r="I154" s="9">
+        <v>60777</v>
+      </c>
+      <c r="J154" s="9">
         <v>62033</v>
       </c>
-      <c r="F154" s="9">
+      <c r="K154" s="9">
         <v>95400</v>
       </c>
-      <c r="G154" s="9">
+      <c r="L154" s="9">
         <v>78983</v>
       </c>
-      <c r="H154" s="9">
+      <c r="M154" s="9">
         <v>78763</v>
       </c>
-      <c r="I154" s="9">
+      <c r="N154" s="9">
         <v>97352</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C155" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D155" s="11"/>
       <c r="E155" s="11">
+        <v>230317</v>
+      </c>
+      <c r="F155" s="11">
+        <v>167171</v>
+      </c>
+      <c r="G155" s="11">
+        <v>281060</v>
+      </c>
+      <c r="H155" s="11">
+        <v>329282</v>
+      </c>
+      <c r="I155" s="11">
+        <v>329282</v>
+      </c>
+      <c r="J155" s="11">
         <v>192276</v>
       </c>
-      <c r="F155" s="11">
+      <c r="K155" s="11">
         <v>276105</v>
       </c>
-      <c r="G155" s="11">
+      <c r="L155" s="11">
         <v>278814</v>
       </c>
-      <c r="H155" s="11">
+      <c r="M155" s="11">
         <v>222524</v>
       </c>
-      <c r="I155" s="11">
+      <c r="N155" s="11">
         <v>130315</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9">
+        <v>17034</v>
+      </c>
+      <c r="F156" s="9">
+        <v>36890</v>
+      </c>
+      <c r="G156" s="9">
+        <v>44468</v>
+      </c>
+      <c r="H156" s="9">
+        <v>48960</v>
+      </c>
+      <c r="I156" s="9">
+        <v>48960</v>
+      </c>
+      <c r="J156" s="9">
         <v>60075</v>
       </c>
-      <c r="F156" s="9">
+      <c r="K156" s="9">
         <v>74129</v>
       </c>
-      <c r="G156" s="9">
+      <c r="L156" s="9">
         <v>49063</v>
       </c>
-      <c r="H156" s="9">
+      <c r="M156" s="9">
         <v>31103</v>
       </c>
-      <c r="I156" s="9">
+      <c r="N156" s="9">
         <v>48933</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D157" s="11"/>
       <c r="E157" s="11">
+        <v>109209</v>
+      </c>
+      <c r="F157" s="11">
+        <v>85453</v>
+      </c>
+      <c r="G157" s="11">
+        <v>108114</v>
+      </c>
+      <c r="H157" s="11">
+        <v>148871</v>
+      </c>
+      <c r="I157" s="11">
+        <v>148871</v>
+      </c>
+      <c r="J157" s="11">
         <v>58874</v>
       </c>
-      <c r="F157" s="11">
+      <c r="K157" s="11">
         <v>73260</v>
       </c>
-      <c r="G157" s="11">
+      <c r="L157" s="11">
         <v>385416</v>
       </c>
-      <c r="H157" s="11">
+      <c r="M157" s="11">
         <v>399110</v>
       </c>
-      <c r="I157" s="11">
+      <c r="N157" s="11">
         <v>254086</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9">
+        <v>195097</v>
+      </c>
+      <c r="F158" s="9">
+        <v>119783</v>
+      </c>
+      <c r="G158" s="9">
+        <v>138683</v>
+      </c>
+      <c r="H158" s="9">
+        <v>97506</v>
+      </c>
+      <c r="I158" s="9">
+        <v>97506</v>
+      </c>
+      <c r="J158" s="9">
         <v>114726</v>
       </c>
-      <c r="F158" s="9">
+      <c r="K158" s="9">
         <v>57051</v>
       </c>
-      <c r="G158" s="9">
+      <c r="L158" s="9">
         <v>97037</v>
       </c>
-      <c r="H158" s="9">
+      <c r="M158" s="9">
         <v>139801</v>
       </c>
-      <c r="I158" s="9">
+      <c r="N158" s="9">
         <v>74775</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
+        <v>1324484</v>
+      </c>
+      <c r="F159" s="13">
+        <v>1462311</v>
+      </c>
+      <c r="G159" s="13">
+        <v>1677711</v>
+      </c>
+      <c r="H159" s="13">
+        <v>1731931</v>
+      </c>
+      <c r="I159" s="13">
+        <v>1971626</v>
+      </c>
+      <c r="J159" s="13">
         <v>1706438</v>
       </c>
-      <c r="F159" s="13">
+      <c r="K159" s="13">
         <v>1855191</v>
       </c>
-      <c r="G159" s="13">
+      <c r="L159" s="13">
         <v>2102158</v>
       </c>
-      <c r="H159" s="13">
+      <c r="M159" s="13">
         <v>2037347</v>
       </c>
-      <c r="I159" s="13">
+      <c r="N159" s="13">
         <v>1745203</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3944,8 +5944,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3954,8 +5959,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3964,10 +5974,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3986,8 +6001,23 @@
       <c r="I163" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3996,272 +6026,442 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
+        <v>31346</v>
+      </c>
+      <c r="F165" s="9">
+        <v>34310</v>
+      </c>
+      <c r="G165" s="9">
+        <v>35211</v>
+      </c>
+      <c r="H165" s="9">
+        <v>46164</v>
+      </c>
+      <c r="I165" s="9">
         <v>45678</v>
       </c>
-      <c r="F165" s="9">
+      <c r="J165" s="9">
+        <v>45678</v>
+      </c>
+      <c r="K165" s="9">
         <v>73252</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>96423</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>160224</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>161625</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
+        <v>3161</v>
+      </c>
+      <c r="F166" s="11">
+        <v>3130</v>
+      </c>
+      <c r="G166" s="11">
+        <v>3218</v>
+      </c>
+      <c r="H166" s="11">
+        <v>4090</v>
+      </c>
+      <c r="I166" s="11">
         <v>4140</v>
       </c>
-      <c r="F166" s="11">
+      <c r="J166" s="11">
+        <v>4140</v>
+      </c>
+      <c r="K166" s="11">
         <v>5447</v>
       </c>
-      <c r="G166" s="11">
+      <c r="L166" s="11">
         <v>5480</v>
       </c>
-      <c r="H166" s="11">
+      <c r="M166" s="11">
         <v>5374</v>
       </c>
-      <c r="I166" s="11">
+      <c r="N166" s="11">
         <v>5344</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9">
+        <v>29744</v>
+      </c>
+      <c r="F167" s="9">
+        <v>48576</v>
+      </c>
+      <c r="G167" s="9">
+        <v>59397</v>
+      </c>
+      <c r="H167" s="9">
+        <v>88463</v>
+      </c>
+      <c r="I167" s="9">
         <v>87838</v>
       </c>
-      <c r="F167" s="9">
+      <c r="J167" s="9">
+        <v>87838</v>
+      </c>
+      <c r="K167" s="9">
         <v>96374</v>
       </c>
-      <c r="G167" s="9">
+      <c r="L167" s="9">
         <v>118825</v>
       </c>
-      <c r="H167" s="9">
+      <c r="M167" s="9">
         <v>156908</v>
       </c>
-      <c r="I167" s="9">
+      <c r="N167" s="9">
         <v>185442</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C168" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G168" s="11">
+        <v>53</v>
+      </c>
+      <c r="G168" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I168" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J168" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K168" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L168" s="11">
         <v>41902</v>
       </c>
-      <c r="H168" s="11">
+      <c r="M168" s="11">
         <v>61102</v>
       </c>
-      <c r="I168" s="11">
+      <c r="N168" s="11">
         <v>61427</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
+        <v>221146</v>
+      </c>
+      <c r="F169" s="9">
+        <v>218251</v>
+      </c>
+      <c r="G169" s="9">
+        <v>222244</v>
+      </c>
+      <c r="H169" s="9">
+        <v>208226</v>
+      </c>
+      <c r="I169" s="9">
         <v>242756</v>
       </c>
-      <c r="F169" s="9">
+      <c r="J169" s="9">
+        <v>242756</v>
+      </c>
+      <c r="K169" s="9">
         <v>414293</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>240266</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>238861</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>232519</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C170" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>294266</v>
+      </c>
+      <c r="F170" s="11">
+        <v>335613</v>
+      </c>
+      <c r="G170" s="11">
+        <v>421207</v>
+      </c>
+      <c r="H170" s="11">
+        <v>590278</v>
+      </c>
+      <c r="I170" s="11">
         <v>665687</v>
       </c>
-      <c r="F170" s="11">
+      <c r="J170" s="11">
+        <v>665687</v>
+      </c>
+      <c r="K170" s="11">
         <v>851456</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>777861</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>778935</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>815185</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
+        <v>1322</v>
+      </c>
+      <c r="F171" s="9">
+        <v>1285</v>
+      </c>
+      <c r="G171" s="9">
+        <v>1667</v>
+      </c>
+      <c r="H171" s="9">
+        <v>1969</v>
+      </c>
+      <c r="I171" s="9">
         <v>2538</v>
       </c>
-      <c r="F171" s="9">
+      <c r="J171" s="9">
+        <v>2538</v>
+      </c>
+      <c r="K171" s="9">
         <v>2893</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>3710</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>3425</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>4104</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C172" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
+        <v>339326</v>
+      </c>
+      <c r="F172" s="11">
+        <v>434004</v>
+      </c>
+      <c r="G172" s="11">
+        <v>278970</v>
+      </c>
+      <c r="H172" s="11">
+        <v>634476</v>
+      </c>
+      <c r="I172" s="11">
         <v>622451</v>
       </c>
-      <c r="F172" s="11">
+      <c r="J172" s="11">
+        <v>622451</v>
+      </c>
+      <c r="K172" s="11">
         <v>665135</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>690440</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>742803</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>763279</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
+        <v>34080</v>
+      </c>
+      <c r="F173" s="9">
+        <v>35593</v>
+      </c>
+      <c r="G173" s="9">
+        <v>56747</v>
+      </c>
+      <c r="H173" s="9">
+        <v>61942</v>
+      </c>
+      <c r="I173" s="9">
         <v>72350</v>
       </c>
-      <c r="F173" s="9">
+      <c r="J173" s="9">
+        <v>72350</v>
+      </c>
+      <c r="K173" s="9">
         <v>91014</v>
       </c>
-      <c r="G173" s="9">
+      <c r="L173" s="9">
         <v>112805</v>
       </c>
-      <c r="H173" s="9">
+      <c r="M173" s="9">
         <v>108900</v>
       </c>
-      <c r="I173" s="9">
+      <c r="N173" s="9">
         <v>92238</v>
       </c>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C174" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
+        <v>149606</v>
+      </c>
+      <c r="F174" s="11">
+        <v>177120</v>
+      </c>
+      <c r="G174" s="11">
+        <v>192782</v>
+      </c>
+      <c r="H174" s="11">
+        <v>150017</v>
+      </c>
+      <c r="I174" s="11">
         <v>253881</v>
       </c>
-      <c r="F174" s="11">
+      <c r="J174" s="11">
+        <v>253881</v>
+      </c>
+      <c r="K174" s="11">
         <v>253985</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>167476</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>648448</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>818373</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
+        <v>64176</v>
+      </c>
+      <c r="F175" s="9">
+        <v>64998</v>
+      </c>
+      <c r="G175" s="9">
+        <v>69192</v>
+      </c>
+      <c r="H175" s="9">
+        <v>111847</v>
+      </c>
+      <c r="I175" s="9">
         <v>120770</v>
       </c>
-      <c r="F175" s="9">
+      <c r="J175" s="9">
+        <v>120770</v>
+      </c>
+      <c r="K175" s="9">
         <v>129342</v>
       </c>
-      <c r="G175" s="9">
+      <c r="L175" s="9">
         <v>132163</v>
       </c>
-      <c r="H175" s="9">
+      <c r="M175" s="9">
         <v>182861</v>
       </c>
-      <c r="I175" s="9">
+      <c r="N175" s="9">
         <v>186992</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4270,8 +6470,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4280,8 +6485,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4290,10 +6500,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4312,8 +6527,23 @@
       <c r="I179" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L179" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M179" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N179" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4322,272 +6552,442 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
+        <v>35353</v>
+      </c>
+      <c r="F181" s="9">
+        <v>37013</v>
+      </c>
+      <c r="G181" s="9">
+        <v>37874</v>
+      </c>
+      <c r="H181" s="9">
+        <v>53112</v>
+      </c>
+      <c r="I181" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J181" s="9">
         <v>61246</v>
       </c>
-      <c r="F181" s="9">
+      <c r="K181" s="9">
         <v>72751</v>
       </c>
-      <c r="G181" s="9">
+      <c r="L181" s="9">
         <v>139868</v>
       </c>
-      <c r="H181" s="9">
+      <c r="M181" s="9">
         <v>205431</v>
       </c>
-      <c r="I181" s="9">
+      <c r="N181" s="9">
         <v>127802</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
+        <v>13694</v>
+      </c>
+      <c r="F182" s="11">
+        <v>6550</v>
+      </c>
+      <c r="G182" s="11">
+        <v>13634</v>
+      </c>
+      <c r="H182" s="11">
+        <v>22381</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J182" s="11">
         <v>5354</v>
       </c>
-      <c r="F182" s="11">
+      <c r="K182" s="11">
         <v>5091</v>
       </c>
-      <c r="G182" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H182" s="11">
+      <c r="L182" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M182" s="11">
         <v>9536</v>
       </c>
-      <c r="I182" s="11">
+      <c r="N182" s="11">
         <v>9823</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9">
+        <v>38241</v>
+      </c>
+      <c r="F183" s="9">
+        <v>58013</v>
+      </c>
+      <c r="G183" s="9">
+        <v>71692</v>
+      </c>
+      <c r="H183" s="9">
+        <v>88366</v>
+      </c>
+      <c r="I183" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J183" s="9">
         <v>88545</v>
       </c>
-      <c r="F183" s="9">
+      <c r="K183" s="9">
         <v>112444</v>
       </c>
-      <c r="G183" s="9">
+      <c r="L183" s="9">
         <v>146738</v>
       </c>
-      <c r="H183" s="9">
+      <c r="M183" s="9">
         <v>185462</v>
       </c>
-      <c r="I183" s="9">
+      <c r="N183" s="9">
         <v>181099</v>
       </c>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D184" s="11"/>
-      <c r="E184" s="11">
+      <c r="E184" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G184" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I184" s="11">
+        <v>573829</v>
+      </c>
+      <c r="J184" s="11">
         <v>-25365</v>
       </c>
-      <c r="F184" s="11">
+      <c r="K184" s="11">
         <v>19941</v>
       </c>
-      <c r="G184" s="11">
+      <c r="L184" s="11">
         <v>37511</v>
       </c>
-      <c r="H184" s="11">
+      <c r="M184" s="11">
         <v>-360723</v>
       </c>
-      <c r="I184" s="11">
+      <c r="N184" s="11">
         <v>81045</v>
       </c>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D185" s="9"/>
-      <c r="E185" s="9">
+      <c r="E185" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H185" s="9">
+        <v>298721</v>
+      </c>
+      <c r="I185" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J185" s="9">
         <v>-9380885</v>
       </c>
-      <c r="F185" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G185" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H185" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I185" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K185" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L185" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N185" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11">
+        <v>472736</v>
+      </c>
+      <c r="F186" s="11">
+        <v>675330</v>
+      </c>
+      <c r="G186" s="11">
+        <v>741196</v>
+      </c>
+      <c r="H186" s="11">
+        <v>835417</v>
+      </c>
+      <c r="I186" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J186" s="11">
         <v>885144</v>
       </c>
-      <c r="F186" s="11">
+      <c r="K186" s="11">
         <v>846618</v>
       </c>
-      <c r="G186" s="11">
+      <c r="L186" s="11">
         <v>940705</v>
       </c>
-      <c r="H186" s="11">
+      <c r="M186" s="11">
         <v>977031</v>
       </c>
-      <c r="I186" s="11">
+      <c r="N186" s="11">
         <v>741613</v>
       </c>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9">
+        <v>1789</v>
+      </c>
+      <c r="F187" s="9">
+        <v>2046</v>
+      </c>
+      <c r="G187" s="9">
+        <v>2283</v>
+      </c>
+      <c r="H187" s="9">
+        <v>2734</v>
+      </c>
+      <c r="I187" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J187" s="9">
         <v>2402</v>
       </c>
-      <c r="F187" s="9">
+      <c r="K187" s="9">
         <v>4056</v>
       </c>
-      <c r="G187" s="9">
+      <c r="L187" s="9">
         <v>3033</v>
       </c>
-      <c r="H187" s="9">
+      <c r="M187" s="9">
         <v>2169</v>
       </c>
-      <c r="I187" s="9">
+      <c r="N187" s="9">
         <v>2986</v>
       </c>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11">
+        <v>791824</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G188" s="11">
+        <v>10502250</v>
+      </c>
+      <c r="H188" s="11">
+        <v>643378</v>
+      </c>
+      <c r="I188" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J188" s="11">
         <v>-1774623</v>
       </c>
-      <c r="F188" s="11">
+      <c r="K188" s="11">
         <v>685620</v>
       </c>
-      <c r="G188" s="11">
+      <c r="L188" s="11">
         <v>1027778</v>
       </c>
-      <c r="H188" s="11">
+      <c r="M188" s="11">
         <v>888155</v>
       </c>
-      <c r="I188" s="11">
+      <c r="N188" s="11">
         <v>1287097</v>
       </c>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9">
+        <v>47118</v>
+      </c>
+      <c r="F189" s="9">
+        <v>71837</v>
+      </c>
+      <c r="G189" s="9">
+        <v>74410</v>
+      </c>
+      <c r="H189" s="9">
+        <v>90914</v>
+      </c>
+      <c r="I189" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J189" s="9">
         <v>95607</v>
       </c>
-      <c r="F189" s="9">
+      <c r="K189" s="9">
         <v>-89178</v>
       </c>
-      <c r="G189" s="9">
+      <c r="L189" s="9">
         <v>129971</v>
       </c>
-      <c r="H189" s="9">
+      <c r="M189" s="9">
         <v>133961</v>
       </c>
-      <c r="I189" s="9">
+      <c r="N189" s="9">
         <v>116149</v>
       </c>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11">
+        <v>118306</v>
+      </c>
+      <c r="F190" s="11">
+        <v>142651</v>
+      </c>
+      <c r="G190" s="11">
+        <v>136611</v>
+      </c>
+      <c r="H190" s="11">
+        <v>181456</v>
+      </c>
+      <c r="I190" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J190" s="11">
         <v>142545</v>
       </c>
-      <c r="F190" s="11">
+      <c r="K190" s="11">
         <v>219935</v>
       </c>
-      <c r="G190" s="11">
+      <c r="L190" s="11">
         <v>469570</v>
       </c>
-      <c r="H190" s="11">
+      <c r="M190" s="11">
         <v>573973</v>
       </c>
-      <c r="I190" s="11">
+      <c r="N190" s="11">
         <v>639600</v>
       </c>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9">
+        <v>65282</v>
+      </c>
+      <c r="F191" s="9">
+        <v>74730</v>
+      </c>
+      <c r="G191" s="9">
+        <v>101080</v>
+      </c>
+      <c r="H191" s="9">
+        <v>121209</v>
+      </c>
+      <c r="I191" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J191" s="9">
         <v>126131</v>
       </c>
-      <c r="F191" s="9">
+      <c r="K191" s="9">
         <v>134843</v>
       </c>
-      <c r="G191" s="9">
+      <c r="L191" s="9">
         <v>174210</v>
       </c>
-      <c r="H191" s="9">
+      <c r="M191" s="9">
         <v>186622</v>
       </c>
-      <c r="I191" s="9">
+      <c r="N191" s="9">
         <v>190214</v>
       </c>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4596,8 +6996,13 @@
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="1"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4606,8 +7011,13 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
-    </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4616,10 +7026,15 @@
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-    </row>
-    <row r="195" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B195" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4638,8 +7053,23 @@
       <c r="I195" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J195" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M195" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N195" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4648,272 +7078,442 @@
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9">
+        <v>35271</v>
+      </c>
+      <c r="F197" s="9">
+        <v>36966</v>
+      </c>
+      <c r="G197" s="9">
+        <v>37626</v>
+      </c>
+      <c r="H197" s="9">
+        <v>53007</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J197" s="9">
         <v>60846</v>
       </c>
-      <c r="F197" s="9">
+      <c r="K197" s="9">
         <v>70627</v>
       </c>
-      <c r="G197" s="9">
+      <c r="L197" s="9">
         <v>134655</v>
       </c>
-      <c r="H197" s="9">
+      <c r="M197" s="9">
         <v>204990</v>
       </c>
-      <c r="I197" s="9">
+      <c r="N197" s="9">
         <v>127903</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11">
+        <v>5646</v>
+      </c>
+      <c r="F198" s="11">
+        <v>6011</v>
+      </c>
+      <c r="G198" s="11">
+        <v>9017</v>
+      </c>
+      <c r="H198" s="11">
+        <v>9687</v>
+      </c>
+      <c r="I198" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J198" s="11">
         <v>5199</v>
       </c>
-      <c r="F198" s="11">
+      <c r="K198" s="11">
         <v>5096</v>
       </c>
-      <c r="G198" s="11">
+      <c r="L198" s="11">
         <v>8571</v>
       </c>
-      <c r="H198" s="11">
+      <c r="M198" s="11">
         <v>9072</v>
       </c>
-      <c r="I198" s="11">
+      <c r="N198" s="11">
         <v>12642</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9">
+        <v>36842</v>
+      </c>
+      <c r="F199" s="9">
+        <v>56983</v>
+      </c>
+      <c r="G199" s="9">
+        <v>69951</v>
+      </c>
+      <c r="H199" s="9">
+        <v>88426</v>
+      </c>
+      <c r="I199" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J199" s="9">
         <v>86627</v>
       </c>
-      <c r="F199" s="9">
+      <c r="K199" s="9">
         <v>103088</v>
       </c>
-      <c r="G199" s="9">
+      <c r="L199" s="9">
         <v>126183</v>
       </c>
-      <c r="H199" s="9">
+      <c r="M199" s="9">
         <v>166129</v>
       </c>
-      <c r="I199" s="9">
+      <c r="N199" s="9">
         <v>184103</v>
       </c>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D200" s="11"/>
-      <c r="E200" s="11">
+      <c r="E200" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G200" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H200" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I200" s="11">
+        <v>7552517</v>
+      </c>
+      <c r="J200" s="11">
         <v>-36153</v>
       </c>
-      <c r="F200" s="11">
+      <c r="K200" s="11">
         <v>21081</v>
       </c>
-      <c r="G200" s="11">
+      <c r="L200" s="11">
         <v>21400</v>
       </c>
-      <c r="H200" s="11">
+      <c r="M200" s="11">
         <v>-422531</v>
       </c>
-      <c r="I200" s="11">
+      <c r="N200" s="11">
         <v>124845</v>
       </c>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C201" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D201" s="9"/>
       <c r="E201" s="9">
+        <v>245007</v>
+      </c>
+      <c r="F201" s="9">
+        <v>185943</v>
+      </c>
+      <c r="G201" s="9">
+        <v>289478</v>
+      </c>
+      <c r="H201" s="9">
+        <v>241683</v>
+      </c>
+      <c r="I201" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J201" s="9">
         <v>247528</v>
       </c>
-      <c r="F201" s="9">
+      <c r="K201" s="9">
         <v>247433</v>
       </c>
-      <c r="G201" s="9">
+      <c r="L201" s="9">
         <v>261085</v>
       </c>
-      <c r="H201" s="9">
+      <c r="M201" s="9">
         <v>280554</v>
       </c>
-      <c r="I201" s="9">
+      <c r="N201" s="9">
         <v>273337</v>
       </c>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B202" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C202" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11">
+        <v>432929</v>
+      </c>
+      <c r="F202" s="11">
+        <v>589486</v>
+      </c>
+      <c r="G202" s="11">
+        <v>686288</v>
+      </c>
+      <c r="H202" s="11">
+        <v>761281</v>
+      </c>
+      <c r="I202" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J202" s="11">
         <v>793561</v>
       </c>
-      <c r="F202" s="11">
+      <c r="K202" s="11">
         <v>911457</v>
       </c>
-      <c r="G202" s="11">
+      <c r="L202" s="11">
         <v>923645</v>
       </c>
-      <c r="H202" s="11">
+      <c r="M202" s="11">
         <v>955103</v>
       </c>
-      <c r="I202" s="11">
+      <c r="N202" s="11">
         <v>1004342</v>
       </c>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D203" s="9"/>
       <c r="E203" s="9">
+        <v>1833</v>
+      </c>
+      <c r="F203" s="9">
+        <v>1685</v>
+      </c>
+      <c r="G203" s="9">
+        <v>2333</v>
+      </c>
+      <c r="H203" s="9">
+        <v>2000</v>
+      </c>
+      <c r="I203" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J203" s="9">
         <v>2300</v>
       </c>
-      <c r="F203" s="9">
+      <c r="K203" s="9">
         <v>3397</v>
       </c>
-      <c r="G203" s="9">
+      <c r="L203" s="9">
         <v>3399</v>
       </c>
-      <c r="H203" s="9">
+      <c r="M203" s="9">
         <v>1991</v>
       </c>
-      <c r="I203" s="9">
+      <c r="N203" s="9">
         <v>3134</v>
       </c>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11">
+        <v>332266</v>
+      </c>
+      <c r="F204" s="11">
+        <v>331239</v>
+      </c>
+      <c r="G204" s="11">
+        <v>559203</v>
+      </c>
+      <c r="H204" s="11">
+        <v>699381</v>
+      </c>
+      <c r="I204" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J204" s="11">
         <v>640518</v>
       </c>
-      <c r="F204" s="11">
+      <c r="K204" s="11">
         <v>610994</v>
       </c>
-      <c r="G204" s="11">
+      <c r="L204" s="11">
         <v>715120</v>
       </c>
-      <c r="H204" s="11">
+      <c r="M204" s="11">
         <v>715286</v>
       </c>
-      <c r="I204" s="11">
+      <c r="N204" s="11">
         <v>724066</v>
       </c>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C205" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9">
+        <v>44488</v>
+      </c>
+      <c r="F205" s="9">
+        <v>65981</v>
+      </c>
+      <c r="G205" s="9">
+        <v>73532</v>
+      </c>
+      <c r="H205" s="9">
+        <v>86404</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J205" s="9">
         <v>91670</v>
       </c>
-      <c r="F205" s="9">
+      <c r="K205" s="9">
         <v>-55211</v>
       </c>
-      <c r="G205" s="9">
+      <c r="L205" s="9">
         <v>127945</v>
       </c>
-      <c r="H205" s="9">
+      <c r="M205" s="9">
         <v>137029</v>
       </c>
-      <c r="I205" s="9">
+      <c r="N205" s="9">
         <v>117629</v>
       </c>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C206" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11">
+        <v>98621</v>
+      </c>
+      <c r="F206" s="11">
+        <v>141652</v>
+      </c>
+      <c r="G206" s="11">
+        <v>153185</v>
+      </c>
+      <c r="H206" s="11">
+        <v>119152</v>
+      </c>
+      <c r="I206" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J206" s="11">
         <v>158161</v>
       </c>
-      <c r="F206" s="11">
+      <c r="K206" s="11">
         <v>245454</v>
       </c>
-      <c r="G206" s="11">
+      <c r="L206" s="11">
         <v>236286</v>
       </c>
-      <c r="H206" s="11">
+      <c r="M206" s="11">
         <v>512868</v>
       </c>
-      <c r="I206" s="11">
+      <c r="N206" s="11">
         <v>697262</v>
       </c>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D207" s="9"/>
       <c r="E207" s="9">
+        <v>64996</v>
+      </c>
+      <c r="F207" s="9">
+        <v>65324</v>
+      </c>
+      <c r="G207" s="9">
+        <v>71071</v>
+      </c>
+      <c r="H207" s="9">
+        <v>114936</v>
+      </c>
+      <c r="I207" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J207" s="9">
         <v>124057</v>
       </c>
-      <c r="F207" s="9">
+      <c r="K207" s="9">
         <v>132705</v>
       </c>
-      <c r="G207" s="9">
+      <c r="L207" s="9">
         <v>160227</v>
       </c>
-      <c r="H207" s="9">
+      <c r="M207" s="9">
         <v>185282</v>
       </c>
-      <c r="I207" s="9">
+      <c r="N207" s="9">
         <v>188540</v>
       </c>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4922,8 +7522,13 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
-    </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4932,8 +7537,13 @@
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
-    </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4942,10 +7552,15 @@
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
-    </row>
-    <row r="211" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B211" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4964,8 +7579,23 @@
       <c r="I211" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J211" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K211" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L211" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M211" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N211" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4974,272 +7604,442 @@
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
-    </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B213" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C213" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D213" s="9"/>
-      <c r="E213" s="9">
+      <c r="E213" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G213" s="9">
+        <v>43759</v>
+      </c>
+      <c r="H213" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I213" s="9">
+        <v>45678</v>
+      </c>
+      <c r="J213" s="9">
         <v>73252</v>
       </c>
-      <c r="F213" s="9">
+      <c r="K213" s="9">
         <v>96423</v>
       </c>
-      <c r="G213" s="9">
+      <c r="L213" s="9">
         <v>160224</v>
       </c>
-      <c r="H213" s="9">
+      <c r="M213" s="9">
         <v>161625</v>
       </c>
-      <c r="I213" s="9">
+      <c r="N213" s="9">
         <v>157993</v>
       </c>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B214" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C214" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D214" s="11"/>
-      <c r="E214" s="11">
+      <c r="E214" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G214" s="11">
+        <v>3968</v>
+      </c>
+      <c r="H214" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I214" s="11">
+        <v>4140</v>
+      </c>
+      <c r="J214" s="11">
         <v>5447</v>
       </c>
-      <c r="F214" s="11">
+      <c r="K214" s="11">
         <v>5480</v>
       </c>
-      <c r="G214" s="11">
+      <c r="L214" s="11">
         <v>5374</v>
       </c>
-      <c r="H214" s="11">
+      <c r="M214" s="11">
         <v>5344</v>
       </c>
-      <c r="I214" s="11">
+      <c r="N214" s="11">
         <v>5382</v>
       </c>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B215" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D215" s="9"/>
-      <c r="E215" s="9">
+      <c r="E215" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F215" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G215" s="9">
+        <v>86831</v>
+      </c>
+      <c r="H215" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I215" s="9">
+        <v>87838</v>
+      </c>
+      <c r="J215" s="9">
         <v>96374</v>
       </c>
-      <c r="F215" s="9">
+      <c r="K215" s="9">
         <v>118825</v>
       </c>
-      <c r="G215" s="9">
+      <c r="L215" s="9">
         <v>156908</v>
       </c>
-      <c r="H215" s="9">
+      <c r="M215" s="9">
         <v>185442</v>
       </c>
-      <c r="I215" s="9">
+      <c r="N215" s="9">
         <v>176371</v>
       </c>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B216" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C216" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D216" s="11"/>
-      <c r="E216" s="11">
+      <c r="E216" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F216" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G216" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H216" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I216" s="11">
+        <v>446538</v>
+      </c>
+      <c r="J216" s="11">
         <v>53583</v>
       </c>
-      <c r="F216" s="11">
+      <c r="K216" s="11">
         <v>41902</v>
       </c>
-      <c r="G216" s="11">
+      <c r="L216" s="11">
         <v>61102</v>
       </c>
-      <c r="H216" s="11">
+      <c r="M216" s="11">
         <v>61427</v>
       </c>
-      <c r="I216" s="11">
+      <c r="N216" s="11">
         <v>54469</v>
       </c>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B217" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C217" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C217" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D217" s="9"/>
-      <c r="E217" s="9">
+      <c r="E217" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G217" s="9">
+        <v>208107</v>
+      </c>
+      <c r="H217" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I217" s="9">
+        <v>242756</v>
+      </c>
+      <c r="J217" s="9">
         <v>414293</v>
       </c>
-      <c r="F217" s="9">
+      <c r="K217" s="9">
         <v>240266</v>
       </c>
-      <c r="G217" s="9">
+      <c r="L217" s="9">
         <v>238861</v>
       </c>
-      <c r="H217" s="9">
+      <c r="M217" s="9">
         <v>232519</v>
       </c>
-      <c r="I217" s="9">
+      <c r="N217" s="9">
         <v>219938</v>
       </c>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B218" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C218" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D218" s="11"/>
-      <c r="E218" s="11">
+      <c r="E218" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F218" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G218" s="11">
+        <v>484535</v>
+      </c>
+      <c r="H218" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I218" s="11">
+        <v>665687</v>
+      </c>
+      <c r="J218" s="11">
         <v>851456</v>
       </c>
-      <c r="F218" s="11">
+      <c r="K218" s="11">
         <v>777861</v>
       </c>
-      <c r="G218" s="11">
+      <c r="L218" s="11">
         <v>778935</v>
       </c>
-      <c r="H218" s="11">
+      <c r="M218" s="11">
         <v>815185</v>
       </c>
-      <c r="I218" s="11">
+      <c r="N218" s="11">
         <v>620091</v>
       </c>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B219" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C219" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="D219" s="9"/>
-      <c r="E219" s="9">
+      <c r="E219" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F219" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G219" s="9">
+        <v>1715</v>
+      </c>
+      <c r="H219" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I219" s="9">
+        <v>2538</v>
+      </c>
+      <c r="J219" s="9">
         <v>2893</v>
       </c>
-      <c r="F219" s="9">
+      <c r="K219" s="9">
         <v>3710</v>
       </c>
-      <c r="G219" s="9">
+      <c r="L219" s="9">
         <v>3425</v>
       </c>
-      <c r="H219" s="9">
+      <c r="M219" s="9">
         <v>4104</v>
       </c>
-      <c r="I219" s="9">
+      <c r="N219" s="9">
         <v>3605</v>
       </c>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B220" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C220" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D220" s="11"/>
-      <c r="E220" s="11">
+      <c r="E220" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G220" s="11">
+        <v>628359</v>
+      </c>
+      <c r="H220" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I220" s="11">
+        <v>622451</v>
+      </c>
+      <c r="J220" s="11">
         <v>665135</v>
       </c>
-      <c r="F220" s="11">
+      <c r="K220" s="11">
         <v>690440</v>
       </c>
-      <c r="G220" s="11">
+      <c r="L220" s="11">
         <v>742803</v>
       </c>
-      <c r="H220" s="11">
+      <c r="M220" s="11">
         <v>763279</v>
       </c>
-      <c r="I220" s="11">
+      <c r="N220" s="11">
         <v>794861</v>
       </c>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B221" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D221" s="9"/>
-      <c r="E221" s="9">
+      <c r="E221" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G221" s="9">
+        <v>60917</v>
+      </c>
+      <c r="H221" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I221" s="9">
+        <v>72350</v>
+      </c>
+      <c r="J221" s="9">
         <v>91014</v>
       </c>
-      <c r="F221" s="9">
+      <c r="K221" s="9">
         <v>112805</v>
       </c>
-      <c r="G221" s="9">
+      <c r="L221" s="9">
         <v>108900</v>
       </c>
-      <c r="H221" s="9">
+      <c r="M221" s="9">
         <v>92238</v>
       </c>
-      <c r="I221" s="9">
+      <c r="N221" s="9">
         <v>93253</v>
       </c>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B222" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D222" s="11"/>
-      <c r="E222" s="11">
+      <c r="E222" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G222" s="11">
+        <v>143495</v>
+      </c>
+      <c r="H222" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I222" s="11">
+        <v>253881</v>
+      </c>
+      <c r="J222" s="11">
         <v>253985</v>
       </c>
-      <c r="F222" s="11">
+      <c r="K222" s="11">
         <v>167476</v>
       </c>
-      <c r="G222" s="11">
+      <c r="L222" s="11">
         <v>648448</v>
       </c>
-      <c r="H222" s="11">
+      <c r="M222" s="11">
         <v>818373</v>
       </c>
-      <c r="I222" s="11">
+      <c r="N222" s="11">
         <v>760828</v>
       </c>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B223" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D223" s="9"/>
-      <c r="E223" s="9">
+      <c r="E223" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F223" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G223" s="9">
+        <v>108403</v>
+      </c>
+      <c r="H223" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I223" s="9">
+        <v>120770</v>
+      </c>
+      <c r="J223" s="9">
         <v>129342</v>
       </c>
-      <c r="F223" s="9">
+      <c r="K223" s="9">
         <v>132163</v>
       </c>
-      <c r="G223" s="9">
+      <c r="L223" s="9">
         <v>182861</v>
       </c>
-      <c r="H223" s="9">
+      <c r="M223" s="9">
         <v>186992</v>
       </c>
-      <c r="I223" s="9">
+      <c r="N223" s="9">
         <v>191801</v>
       </c>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -5248,8 +8048,13 @@
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
-    </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -5258,8 +8063,13 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
-    </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -5268,10 +8078,15 @@
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
-    </row>
-    <row r="227" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+    </row>
+    <row r="227" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B227" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -5290,8 +8105,23 @@
       <c r="I227" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J227" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K227" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L227" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M227" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N227" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -5300,32 +8130,52 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
-    </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B229" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="9">
+        <v>9223</v>
+      </c>
+      <c r="F229" s="9">
+        <v>11247</v>
+      </c>
+      <c r="G229" s="9">
+        <v>13395</v>
+      </c>
+      <c r="H229" s="9">
+        <v>12083</v>
+      </c>
+      <c r="I229" s="9">
+        <v>12989</v>
+      </c>
+      <c r="J229" s="9">
         <v>16341</v>
       </c>
-      <c r="F229" s="9">
+      <c r="K229" s="9">
         <v>23619</v>
       </c>
-      <c r="G229" s="9">
-        <v>0</v>
-      </c>
-      <c r="H229" s="9">
-        <v>0</v>
-      </c>
-      <c r="I229" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L229" s="9">
+        <v>0</v>
+      </c>
+      <c r="M229" s="9">
+        <v>0</v>
+      </c>
+      <c r="N229" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B230" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
@@ -5344,10 +8194,25 @@
       <c r="I230" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J230" s="11">
+        <v>0</v>
+      </c>
+      <c r="K230" s="11">
+        <v>0</v>
+      </c>
+      <c r="L230" s="11">
+        <v>0</v>
+      </c>
+      <c r="M230" s="11">
+        <v>0</v>
+      </c>
+      <c r="N230" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B231" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
@@ -5361,15 +8226,30 @@
         <v>0</v>
       </c>
       <c r="H231" s="9">
+        <v>0</v>
+      </c>
+      <c r="I231" s="9">
+        <v>0</v>
+      </c>
+      <c r="J231" s="9">
+        <v>0</v>
+      </c>
+      <c r="K231" s="9">
+        <v>0</v>
+      </c>
+      <c r="L231" s="9">
+        <v>0</v>
+      </c>
+      <c r="M231" s="9">
         <v>17923</v>
       </c>
-      <c r="I231" s="9">
+      <c r="N231" s="9">
         <v>-17923</v>
       </c>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B232" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
@@ -5388,98 +8268,173 @@
       <c r="I232" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J232" s="11">
+        <v>0</v>
+      </c>
+      <c r="K232" s="11">
+        <v>0</v>
+      </c>
+      <c r="L232" s="11">
+        <v>0</v>
+      </c>
+      <c r="M232" s="11">
+        <v>0</v>
+      </c>
+      <c r="N232" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B233" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="9">
+        <v>21982</v>
+      </c>
+      <c r="F233" s="9">
+        <v>42787</v>
+      </c>
+      <c r="G233" s="9">
+        <v>62408</v>
+      </c>
+      <c r="H233" s="9">
+        <v>35632</v>
+      </c>
+      <c r="I233" s="9">
+        <v>46426</v>
+      </c>
+      <c r="J233" s="9">
         <v>149347</v>
       </c>
-      <c r="F233" s="9">
+      <c r="K233" s="9">
         <v>-48444</v>
       </c>
-      <c r="G233" s="9">
+      <c r="L233" s="9">
         <v>26911</v>
       </c>
-      <c r="H233" s="9">
+      <c r="M233" s="9">
         <v>41484</v>
       </c>
-      <c r="I233" s="9">
+      <c r="N233" s="9">
         <v>-25932</v>
       </c>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B234" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C234" s="11"/>
       <c r="D234" s="11"/>
       <c r="E234" s="11">
+        <v>9874</v>
+      </c>
+      <c r="F234" s="11">
+        <v>3624</v>
+      </c>
+      <c r="G234" s="11">
+        <v>10118</v>
+      </c>
+      <c r="H234" s="11">
+        <v>3392</v>
+      </c>
+      <c r="I234" s="11">
+        <v>19509</v>
+      </c>
+      <c r="J234" s="11">
         <v>6476</v>
       </c>
-      <c r="F234" s="11">
+      <c r="K234" s="11">
         <v>28553</v>
       </c>
-      <c r="G234" s="11">
+      <c r="L234" s="11">
         <v>27089</v>
       </c>
-      <c r="H234" s="11">
+      <c r="M234" s="11">
         <v>16703</v>
       </c>
-      <c r="I234" s="11">
+      <c r="N234" s="11">
         <v>10619</v>
       </c>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B235" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="9">
+        <v>23622</v>
+      </c>
+      <c r="F235" s="9">
+        <v>26622</v>
+      </c>
+      <c r="G235" s="9">
+        <v>29464</v>
+      </c>
+      <c r="H235" s="9">
+        <v>31939</v>
+      </c>
+      <c r="I235" s="9">
+        <v>31220</v>
+      </c>
+      <c r="J235" s="9">
         <v>46630</v>
       </c>
-      <c r="F235" s="9">
+      <c r="K235" s="9">
         <v>48748</v>
       </c>
-      <c r="G235" s="9">
+      <c r="L235" s="9">
         <v>51757</v>
       </c>
-      <c r="H235" s="9">
+      <c r="M235" s="9">
         <v>51141</v>
       </c>
-      <c r="I235" s="9">
+      <c r="N235" s="9">
         <v>50964</v>
       </c>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B236" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11">
+        <v>102166</v>
+      </c>
+      <c r="F236" s="11">
+        <v>95848</v>
+      </c>
+      <c r="G236" s="11">
+        <v>117267</v>
+      </c>
+      <c r="H236" s="11">
+        <v>166774</v>
+      </c>
+      <c r="I236" s="11">
+        <v>123739</v>
+      </c>
+      <c r="J236" s="11">
         <v>138389</v>
       </c>
-      <c r="F236" s="11">
+      <c r="K236" s="11">
         <v>169172</v>
       </c>
-      <c r="G236" s="11">
+      <c r="L236" s="11">
         <v>260221</v>
       </c>
-      <c r="H236" s="11">
+      <c r="M236" s="11">
         <v>113488</v>
       </c>
-      <c r="I236" s="11">
+      <c r="N236" s="11">
         <v>226725</v>
       </c>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B237" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
@@ -5498,52 +8453,97 @@
       <c r="I237" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J237" s="9">
+        <v>0</v>
+      </c>
+      <c r="K237" s="9">
+        <v>0</v>
+      </c>
+      <c r="L237" s="9">
+        <v>0</v>
+      </c>
+      <c r="M237" s="9">
+        <v>0</v>
+      </c>
+      <c r="N237" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B238" s="10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
       <c r="E238" s="11">
+        <v>40357</v>
+      </c>
+      <c r="F238" s="11">
+        <v>25658</v>
+      </c>
+      <c r="G238" s="11">
+        <v>68001</v>
+      </c>
+      <c r="H238" s="11">
+        <v>60502</v>
+      </c>
+      <c r="I238" s="11">
+        <v>99835</v>
+      </c>
+      <c r="J238" s="11">
         <v>-78252</v>
       </c>
-      <c r="F238" s="11">
+      <c r="K238" s="11">
         <v>191778</v>
       </c>
-      <c r="G238" s="11">
+      <c r="L238" s="11">
         <v>106371</v>
       </c>
-      <c r="H238" s="11">
+      <c r="M238" s="11">
         <v>84758</v>
       </c>
-      <c r="I238" s="11">
+      <c r="N238" s="11">
         <v>129471</v>
       </c>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B239" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
       <c r="E239" s="15">
+        <v>207224</v>
+      </c>
+      <c r="F239" s="15">
+        <v>205786</v>
+      </c>
+      <c r="G239" s="15">
+        <v>300653</v>
+      </c>
+      <c r="H239" s="15">
+        <v>310322</v>
+      </c>
+      <c r="I239" s="15">
+        <v>333718</v>
+      </c>
+      <c r="J239" s="15">
         <v>278931</v>
       </c>
-      <c r="F239" s="15">
+      <c r="K239" s="15">
         <v>413426</v>
       </c>
-      <c r="G239" s="15">
+      <c r="L239" s="15">
         <v>472349</v>
       </c>
-      <c r="H239" s="15">
+      <c r="M239" s="15">
         <v>325497</v>
       </c>
-      <c r="I239" s="15">
+      <c r="N239" s="15">
         <v>373924</v>
       </c>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -5552,8 +8552,13 @@
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
-    </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="1"/>
+      <c r="N240" s="1"/>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -5562,8 +8567,13 @@
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
-    </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J241" s="1"/>
+      <c r="K241" s="1"/>
+      <c r="L241" s="1"/>
+      <c r="M241" s="1"/>
+      <c r="N241" s="1"/>
+    </row>
+    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -5572,10 +8582,15 @@
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
-    </row>
-    <row r="243" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J242" s="1"/>
+      <c r="K242" s="1"/>
+      <c r="L242" s="1"/>
+      <c r="M242" s="1"/>
+      <c r="N242" s="1"/>
+    </row>
+    <row r="243" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B243" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -5584,8 +8599,13 @@
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
-    </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J243" s="1"/>
+      <c r="K243" s="1"/>
+      <c r="L243" s="1"/>
+      <c r="M243" s="1"/>
+      <c r="N243" s="1"/>
+    </row>
+    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -5594,13 +8614,18 @@
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
-    </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J244" s="1"/>
+      <c r="K244" s="1"/>
+      <c r="L244" s="1"/>
+      <c r="M244" s="1"/>
+      <c r="N244" s="1"/>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B245" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C245" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D245" s="9"/>
       <c r="E245" s="9"/>
@@ -5608,13 +8633,18 @@
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
-    </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B246" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C246" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
@@ -5622,123 +8652,128 @@
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
-    </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B247" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D247" s="9"/>
       <c r="E247" s="9"/>
       <c r="F247" s="9"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B248" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C248" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B249" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C249" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D249" s="9"/>
       <c r="E249" s="9"/>
       <c r="F249" s="9"/>
     </row>
-    <row r="250" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B250" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C250" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
     </row>
-    <row r="251" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B251" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C251" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9"/>
     </row>
-    <row r="252" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B252" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C252" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
     </row>
-    <row r="253" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B253" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D253" s="9"/>
       <c r="E253" s="9"/>
       <c r="F253" s="9"/>
     </row>
-    <row r="254" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B254" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C254" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
     </row>
-    <row r="255" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B255" s="8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C255" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D255" s="9"/>
       <c r="E255" s="9"/>
       <c r="F255" s="9"/>
     </row>
-    <row r="256" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B256" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C256" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D257" s="9"/>
       <c r="E257" s="9"/>
